--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b10873df2abd437/文档/Company_Investment/Opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{81CC1E11-8769-7346-B8E7-77899CF1825C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA17CFBE-0FB0-2F40-BAB2-AABC2674FE78}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{81CC1E11-8769-7346-B8E7-77899CF1825C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CDBF5E5-EE21-0D4F-A6AA-D240A828DEEB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,15 +45,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="230">
   <si>
     <t>Company Info:</t>
-  </si>
-  <si>
-    <t>Ticker:</t>
-  </si>
-  <si>
-    <t>Ticker Name:</t>
   </si>
   <si>
     <t>Current Price:</t>
@@ -726,9 +720,6 @@
     <t>Normalized E/P</t>
   </si>
   <si>
-    <t>Normalized D/P:</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -798,13 +789,25 @@
     <t>US</t>
   </si>
   <si>
-    <t>Watchlist:</t>
-  </si>
-  <si>
     <t>Market Yields</t>
   </si>
   <si>
     <t>Non-controlling Interests</t>
+  </si>
+  <si>
+    <t>Watchlist &amp; Comp_Group:</t>
+  </si>
+  <si>
+    <t>C0001</t>
+  </si>
+  <si>
+    <t>Normalized D/P</t>
+  </si>
+  <si>
+    <t>Symbol:</t>
+  </si>
+  <si>
+    <t>Name:</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1282,7 @@
     <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1706,14 +1709,45 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1728,36 +1762,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2096,7 +2102,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2137,69 +2143,69 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="191" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="192"/>
+        <v>228</v>
+      </c>
+      <c r="C3" s="198" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="199"/>
       <c r="E3" s="94"/>
       <c r="F3" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="171">
         <v>19.04</v>
       </c>
       <c r="H3" s="173" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="203" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="204"/>
+        <v>229</v>
+      </c>
+      <c r="C4" s="200" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="201"/>
       <c r="E4" s="94"/>
       <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="200">
+        <v>3</v>
+      </c>
+      <c r="G4" s="204">
         <v>1462217799</v>
       </c>
-      <c r="H4" s="200"/>
+      <c r="H4" s="204"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="202">
         <v>45591</v>
       </c>
-      <c r="D5" s="193"/>
+      <c r="D5" s="203"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="190">
+        <v>103</v>
+      </c>
+      <c r="G5" s="196">
         <f>G3*G4/1000000</f>
         <v>27840.626892959997</v>
       </c>
-      <c r="H5" s="190"/>
+      <c r="H5" s="196"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="205">
+        <v>4</v>
+      </c>
+      <c r="C6" s="191">
         <v>8</v>
       </c>
-      <c r="D6" s="206">
+      <c r="D6" s="192">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -2208,25 +2214,27 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="207" t="s">
-        <v>224</v>
-      </c>
-      <c r="H6" s="207"/>
+        <v>5</v>
+      </c>
+      <c r="G6" s="197" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="197"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="190" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="212" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="203" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="204"/>
       <c r="E7" s="94"/>
       <c r="F7" s="35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7" s="172">
         <v>7.8</v>
@@ -2239,45 +2247,45 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="180" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F9" s="186" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C10" s="170">
         <v>4.0899999999999999E-2</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="147" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C11" s="184">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="D11" s="177" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="208">
+        <v>143</v>
+      </c>
+      <c r="C12" s="193">
         <v>0.08</v>
       </c>
-      <c r="D12" s="209">
+      <c r="D12" s="170">
         <f>(C12+C17)/2</f>
         <v>9.6250000000000002E-2</v>
       </c>
@@ -2286,45 +2294,45 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C14" s="170">
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="F14" s="125" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C15" s="170">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="125" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="147" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C16" s="184">
         <v>0.16</v>
       </c>
-      <c r="D16" s="211" t="s">
-        <v>221</v>
+      <c r="D16" s="195" t="s">
+        <v>218</v>
       </c>
       <c r="F16" s="125" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="210">
+        <v>206</v>
+      </c>
+      <c r="C17" s="194">
         <f>(C15+C16)/2</f>
         <v>0.1125</v>
       </c>
@@ -2333,29 +2341,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="185" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C19" s="175" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="94"/>
       <c r="E19" s="94"/>
       <c r="F19" s="185" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="177" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C20" s="178">
         <f>Fin_Analysis!F75</f>
         <v>0.40723441233977836</v>
       </c>
       <c r="F20" s="181" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G20" s="178">
         <f>Fin_Analysis!F91</f>
@@ -2364,14 +2372,14 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="177" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C21" s="178">
         <f>Fin_Analysis!F77</f>
         <v>0.41258418422767756</v>
       </c>
       <c r="F21" s="181" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G21" s="178">
         <f>Fin_Analysis!F92</f>
@@ -2380,26 +2388,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="177" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C22" s="178">
         <f>Fin_Analysis!F79</f>
         <v>4.6980230284597004E-2</v>
       </c>
       <c r="F22" s="185" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="177" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C23" s="178">
         <f>Fin_Analysis!F80</f>
         <v>0</v>
       </c>
       <c r="F23" s="181" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
@@ -2408,14 +2416,14 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="177" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C24" s="178">
         <f>Fin_Analysis!F82</f>
         <v>9.0430154247230065E-3</v>
       </c>
       <c r="F24" s="181" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
@@ -2424,14 +2432,14 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="177" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C25" s="178">
         <f>Fin_Analysis!F82</f>
         <v>9.0430154247230065E-3</v>
       </c>
       <c r="F25" s="181" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G25" s="178">
         <f>Fin_Analysis!F87</f>
@@ -2440,14 +2448,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="179" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C26" s="178">
         <f>Fin_Analysis!F83</f>
         <v>0.12160756362907141</v>
       </c>
       <c r="F26" s="183" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
@@ -2458,24 +2466,24 @@
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E28" s="62"/>
       <c r="F28" s="53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
@@ -3387,14 +3395,13 @@
     <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -3421,7 +3428,7 @@
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
       <formula1>"Y, N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3469,7 +3476,7 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
@@ -3486,13 +3493,13 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="96">
         <v>45291</v>
       </c>
       <c r="D3" s="116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="92">
         <v>1000000</v>
@@ -3518,7 +3525,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -3568,7 +3575,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="58">
         <v>3682.4</v>
@@ -3590,7 +3597,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="103">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -3641,7 +3648,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="92">
         <v>1499.6</v>
@@ -3663,7 +3670,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" s="101">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -3714,7 +3721,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" s="92">
         <v>1519.3</v>
@@ -3736,7 +3743,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11" s="97">
         <f t="shared" ref="C11:M11" si="3">IF(C6="","",(C12/C6))</f>
@@ -3787,7 +3794,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="92"/>
       <c r="D12" s="92"/>
@@ -3805,7 +3812,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" s="101">
         <f>IF(C6="","",(C9-C10+C12))</f>
@@ -3856,7 +3863,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C14" s="92"/>
       <c r="D14" s="92"/>
@@ -3874,7 +3881,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" s="92"/>
       <c r="D15" s="92"/>
@@ -3892,7 +3899,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C16" s="92"/>
       <c r="D16" s="92"/>
@@ -3910,7 +3917,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C17" s="92">
         <v>173</v>
@@ -3932,7 +3939,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="92">
         <v>33.299999999999997</v>
@@ -3954,7 +3961,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C19" s="95">
         <f>IF(C6="","",C13-C14-MAX(C15,0)-MAX(C16,0)-C17-MAX(C18/(1-Fin_Analysis!$F$84),0))</f>
@@ -4005,7 +4012,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C20" s="57">
         <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
@@ -4056,7 +4063,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C21" s="56">
         <f t="shared" ref="C21:M21" si="6">IF(C6="","",C22/C6)</f>
@@ -4107,7 +4114,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C22" s="102">
         <f>IF(C6="","",C19*(1-Fin_Analysis!$F$84))</f>
@@ -4158,7 +4165,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C23" s="80">
         <f>IF(D22="","",IF(ABS(C22+D22)=ABS(C22)+ABS(D22),IF(C22&lt;0,-1,1)*(C22-D22)/D22,"Turn"))</f>
@@ -4209,7 +4216,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="48">
         <f>Fin_Analysis!D9</f>
@@ -4260,7 +4267,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="41">
         <f t="shared" ref="C25:M25" si="17">IF(C6="","",C34+C29+C30)</f>
@@ -4311,7 +4318,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" s="41">
         <f>Fin_Analysis!C28</f>
@@ -4332,7 +4339,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27" s="41">
         <f>Fin_Analysis!C13</f>
@@ -4353,7 +4360,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C28" s="41">
         <f>Fin_Analysis!C18</f>
@@ -4374,7 +4381,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="41">
         <f>Fin_Analysis!I28</f>
@@ -4395,7 +4402,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C30" s="41">
         <f>Fin_Analysis!I48</f>
@@ -4416,7 +4423,7 @@
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="41">
         <f>Fin_Analysis!I15</f>
@@ -4437,7 +4444,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="41">
         <f>Fin_Analysis!I34</f>
@@ -4458,7 +4465,7 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C33" s="95">
         <f t="shared" ref="C33:M33" si="18">IF(C6="","",C31+C32)</f>
@@ -4509,7 +4516,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C34" s="41">
         <f>Fin_Analysis!D3</f>
@@ -4530,7 +4537,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C35" s="41">
         <f>Fin_Analysis!D4</f>
@@ -4551,7 +4558,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C36" s="41">
         <f>Fin_Analysis!C63</f>
@@ -4572,7 +4579,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C37" s="41">
         <f>Fin_Analysis!C68</f>
@@ -4623,7 +4630,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C38" s="104">
         <f>IF(C6="","",C19/C37)</f>
@@ -4674,7 +4681,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -4692,7 +4699,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C40" s="61">
         <f t="shared" ref="C40:M40" si="21">IF(C6="","",C8/C6)</f>
@@ -4743,7 +4750,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C41" s="56">
         <f t="shared" ref="C41:M41" si="22">IF(C6="","",(C10-C12)/C6)</f>
@@ -4794,7 +4801,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C42" s="56">
         <f t="shared" ref="C42:M42" si="23">IF(C6="","",(C14+MAX(C15,0))/C6)</f>
@@ -4845,7 +4852,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C43" s="56">
         <f t="shared" ref="C43:M43" si="24">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -4896,7 +4903,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C44" s="56">
         <f t="shared" ref="C44:M44" si="25">IF(C6="","",C17/C6)</f>
@@ -4947,7 +4954,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C45" s="56">
         <f>IF(C6="","",MAX(C18,0)/(1-Fin_Analysis!$F$84)/C6)</f>
@@ -4998,7 +5005,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C46" s="56">
         <f t="shared" ref="C46:M46" si="26">IF(C6="","",C19/C6)</f>
@@ -5049,7 +5056,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
@@ -5067,7 +5074,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C48" s="61">
         <f t="shared" ref="C48:M48" si="27">IF(C6="","",C27/C6)</f>
@@ -5118,7 +5125,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C49" s="56">
         <f t="shared" ref="C49:M49" si="28">IF(C6="","",C28/C6)</f>
@@ -5169,7 +5176,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
@@ -5186,7 +5193,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C51" s="61">
         <f>IF(C34="","",(C25-C34)/C25)</f>
@@ -5236,7 +5243,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C52" s="60">
         <f t="shared" ref="C52:M52" si="30">IF(C19="","",IF(C33&lt;=0,"-",C19/C33))</f>
@@ -5286,7 +5293,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C53" s="56">
         <f t="shared" ref="C53:M53" si="31">IF(C19="","",IF(C17&lt;=0,"-",C17/C19))</f>
@@ -5336,7 +5343,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C54" s="62">
         <f t="shared" ref="C54:M54" si="32">IF(C26="","",C26/C29)</f>
@@ -6691,7 +6698,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="68"/>
@@ -6701,12 +6708,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="94"/>
       <c r="K2" s="50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="94"/>
       <c r="D3" s="141">
@@ -6720,7 +6727,7 @@
       <c r="F3" s="94"/>
       <c r="G3" s="94"/>
       <c r="H3" s="47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="59">
         <v>1478.9</v>
@@ -6729,7 +6736,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="94"/>
       <c r="D4" s="69">
@@ -6747,10 +6754,10 @@
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="I5" s="67">
         <f>C28/I28</f>
@@ -6760,7 +6767,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
@@ -6774,7 +6781,7 @@
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I6" s="67">
         <f>(C24+C25)/I28</f>
@@ -6785,7 +6792,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
@@ -6797,7 +6804,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I7" s="67">
         <f>C24/I28</f>
@@ -6815,7 +6822,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="93"/>
       <c r="D9" s="71">
@@ -6833,32 +6840,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="E10" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="F10" s="126" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="126" t="s">
-        <v>39</v>
       </c>
       <c r="G10" s="94"/>
       <c r="H10" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10" s="81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="63">
         <v>815.5</v>
@@ -6873,7 +6880,7 @@
       <c r="F11" s="127"/>
       <c r="G11" s="94"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I11" s="63">
         <f>67.8+25</f>
@@ -6884,7 +6891,7 @@
     </row>
     <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="63"/>
       <c r="D12" s="64">
@@ -6897,7 +6904,7 @@
       <c r="F12" s="127"/>
       <c r="G12" s="94"/>
       <c r="H12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I12" s="63">
         <v>126</v>
@@ -6907,7 +6914,7 @@
     </row>
     <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="63">
         <v>346.1</v>
@@ -6922,7 +6929,7 @@
       <c r="F13" s="127"/>
       <c r="G13" s="94"/>
       <c r="H13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I13" s="63"/>
       <c r="J13" s="94"/>
@@ -6930,7 +6937,7 @@
     </row>
     <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="63"/>
       <c r="D14" s="64">
@@ -6943,7 +6950,7 @@
       <c r="F14" s="127"/>
       <c r="G14" s="94"/>
       <c r="H14" s="93" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I14" s="145"/>
       <c r="J14" s="94"/>
@@ -6951,7 +6958,7 @@
     </row>
     <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="63"/>
       <c r="D15" s="64">
@@ -6964,7 +6971,7 @@
       <c r="F15" s="127"/>
       <c r="G15" s="94"/>
       <c r="H15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I15" s="91">
         <f>SUM(I11:I14)</f>
@@ -6974,7 +6981,7 @@
     </row>
     <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16" s="63"/>
       <c r="D16" s="64">
@@ -6992,7 +6999,7 @@
     </row>
     <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C17" s="63">
         <v>95.8</v>
@@ -7012,7 +7019,7 @@
     </row>
     <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="63">
         <v>637.70000000000005</v>
@@ -7031,7 +7038,7 @@
     </row>
     <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="63"/>
       <c r="D19" s="64">
@@ -7042,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="128" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" s="30">
         <f>IF(F19="Y",0,1)</f>
@@ -7051,7 +7058,7 @@
     </row>
     <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C20" s="63"/>
       <c r="D20" s="64">
@@ -7062,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="128" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G20" s="30">
         <f>IF(F20="Y",0,1)</f>
@@ -7073,7 +7080,7 @@
     </row>
     <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="63"/>
       <c r="D21" s="64">
@@ -7090,7 +7097,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="63"/>
       <c r="D22" s="64">
@@ -7103,7 +7110,7 @@
       <c r="F22" s="127"/>
       <c r="G22" s="94"/>
       <c r="H22" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -7115,13 +7122,13 @@
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
       <c r="F23" s="126" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G23" s="94"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="65">
         <f>SUM(C11:C14)</f>
@@ -7143,7 +7150,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="65">
         <f>SUM(C15:C17)</f>
@@ -7163,7 +7170,7 @@
       </c>
       <c r="G25" s="94"/>
       <c r="H25" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I25" s="67">
         <f>E28/I28</f>
@@ -7172,7 +7179,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="65">
         <f>C18+C19+C20</f>
@@ -7192,7 +7199,7 @@
       </c>
       <c r="G26" s="94"/>
       <c r="H26" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I26" s="67">
         <f>E24/($I$28-I22)</f>
@@ -7205,7 +7212,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="84">
         <f>C21+C22</f>
@@ -7225,7 +7232,7 @@
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I27" s="67">
         <f>(E25+E24)/$I$28</f>
@@ -7238,7 +7245,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" s="86">
         <f>SUM(C11:C22)</f>
@@ -7255,7 +7262,7 @@
       <c r="F28" s="127"/>
       <c r="G28" s="94"/>
       <c r="H28" s="85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="72">
         <v>1180.4000000000001</v>
@@ -7270,7 +7277,7 @@
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
       <c r="F29" s="127" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G29" s="94"/>
       <c r="H29" s="94"/>
@@ -7279,7 +7286,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" s="63"/>
       <c r="D30" s="64">
@@ -7291,7 +7298,7 @@
       <c r="F30" s="127"/>
       <c r="G30" s="94"/>
       <c r="H30" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I30" s="63">
         <v>1721</v>
@@ -7300,7 +7307,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="63"/>
       <c r="D31" s="64">
@@ -7313,7 +7320,7 @@
       <c r="F31" s="127"/>
       <c r="G31" s="94"/>
       <c r="H31" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I31" s="63">
         <v>392.6</v>
@@ -7322,7 +7329,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="63"/>
       <c r="D32" s="64">
@@ -7335,14 +7342,14 @@
       <c r="F32" s="127"/>
       <c r="G32" s="94"/>
       <c r="H32" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
     <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C33" s="63"/>
       <c r="D33" s="64">
@@ -7358,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="93" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I33" s="145">
         <f>121+0.2</f>
@@ -7368,7 +7375,7 @@
     </row>
     <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" s="63"/>
       <c r="D34" s="64">
@@ -7381,7 +7388,7 @@
       <c r="F34" s="127"/>
       <c r="G34" s="94"/>
       <c r="H34" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I34" s="91">
         <f>SUM(I30:I33)</f>
@@ -7391,7 +7398,7 @@
     </row>
     <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" s="63"/>
       <c r="D35" s="64">
@@ -7402,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="128" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G35" s="30">
         <f>IF(F35="Y",0,1)</f>
@@ -7412,7 +7419,7 @@
     </row>
     <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="63"/>
       <c r="D36" s="64">
@@ -7423,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="128" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G36" s="30">
         <f>IF(F36="Y",0,1)</f>
@@ -7434,7 +7441,7 @@
     </row>
     <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" s="63"/>
       <c r="D37" s="64">
@@ -7445,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="128" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G37" s="30">
         <f>IF(F37="Y",0,1)</f>
@@ -7456,7 +7463,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C38" s="63">
         <f>231.7+470.1</f>
@@ -7476,7 +7483,7 @@
     </row>
     <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="63"/>
       <c r="D39" s="64">
@@ -7493,7 +7500,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="63">
         <v>1525.3</v>
@@ -7512,7 +7519,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="63">
         <v>169.3</v>
@@ -7531,7 +7538,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C42" s="63">
         <f>882.1+67.5</f>
@@ -7547,7 +7554,7 @@
       <c r="F42" s="127"/>
       <c r="G42" s="94"/>
       <c r="H42" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -7565,7 +7572,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" s="65">
         <f>SUM(C30:C31)</f>
@@ -7584,7 +7591,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C45" s="65">
         <f>SUM(C32:C35)</f>
@@ -7603,7 +7610,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C46" s="65">
         <f>C36+C37+C38+C39</f>
@@ -7620,7 +7627,7 @@
       <c r="F46" s="94"/>
       <c r="G46" s="94"/>
       <c r="H46" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I46" s="67">
         <f>(E44+E24)/E64</f>
@@ -7633,7 +7640,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C47" s="65">
         <f>C40+C41+C42</f>
@@ -7650,7 +7657,7 @@
       <c r="F47" s="94"/>
       <c r="G47" s="94"/>
       <c r="H47" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I47" s="67">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -7663,7 +7670,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48" s="88">
         <f>SUM(C30:C42)</f>
@@ -7680,7 +7687,7 @@
       <c r="F48" s="94"/>
       <c r="G48" s="94"/>
       <c r="H48" s="87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I48" s="90">
         <v>2453.6999999999998</v>
@@ -7689,7 +7696,7 @@
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C49" s="65">
         <f>C28+C48</f>
@@ -7706,7 +7713,7 @@
       <c r="F49" s="94"/>
       <c r="G49" s="94"/>
       <c r="H49" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -7722,14 +7729,14 @@
     </row>
     <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52" s="94"/>
       <c r="D52" s="81" t="str">
@@ -7740,13 +7747,13 @@
       <c r="F52" s="94"/>
       <c r="G52" s="94"/>
       <c r="H52" s="50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I52" s="94"/>
     </row>
     <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C53" s="95">
         <f>D4</f>
@@ -7776,7 +7783,7 @@
     </row>
     <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="159"/>
@@ -7787,14 +7794,14 @@
     </row>
     <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="198">
+      <c r="D56" s="209">
         <f>I15+I34</f>
         <v>2453.6</v>
       </c>
-      <c r="E56" s="199"/>
+      <c r="E56" s="210"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="94"/>
@@ -7802,28 +7809,28 @@
     </row>
     <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C57" s="94"/>
-      <c r="D57" s="200">
+      <c r="D57" s="204">
         <v>0</v>
       </c>
-      <c r="E57" s="193"/>
+      <c r="E57" s="203"/>
       <c r="G57" s="94"/>
       <c r="H57" s="94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I57" s="94"/>
     </row>
     <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C58" s="94"/>
-      <c r="D58" s="200">
+      <c r="D58" s="204">
         <v>0</v>
       </c>
-      <c r="E58" s="193"/>
+      <c r="E58" s="203"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="94"/>
@@ -7840,11 +7847,11 @@
     </row>
     <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="82" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E60" s="94"/>
       <c r="F60" s="9"/>
@@ -7854,7 +7861,7 @@
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C61" s="74">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -7875,7 +7882,7 @@
     </row>
     <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C62" s="142">
         <f>C11+C30</f>
@@ -7896,7 +7903,7 @@
     </row>
     <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C63" s="74">
         <f>C61+C62</f>
@@ -7917,7 +7924,7 @@
     </row>
     <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="146" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C64" s="147"/>
       <c r="D64" s="148"/>
@@ -7932,7 +7939,7 @@
     </row>
     <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C65" s="74">
         <f>C63-E64</f>
@@ -7963,11 +7970,11 @@
     </row>
     <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="82" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E67" s="65"/>
       <c r="F67" s="94"/>
@@ -7977,7 +7984,7 @@
     </row>
     <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C68" s="74">
         <f>C49-C63</f>
@@ -7998,7 +8005,7 @@
     </row>
     <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="146" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C69" s="147"/>
       <c r="D69" s="148"/>
@@ -8013,7 +8020,7 @@
     </row>
     <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C70" s="74">
         <f>C68-E69</f>
@@ -8035,15 +8042,15 @@
     <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" s="196">
+        <v>138</v>
+      </c>
+      <c r="C72" s="207">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="196"/>
+      <c r="D72" s="207"/>
       <c r="H72" s="50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8051,18 +8058,18 @@
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="195" t="s">
-        <v>106</v>
-      </c>
-      <c r="D73" s="195"/>
-      <c r="E73" s="197" t="s">
-        <v>107</v>
-      </c>
-      <c r="F73" s="195"/>
+      <c r="C73" s="206" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="206"/>
+      <c r="E73" s="208" t="s">
+        <v>105</v>
+      </c>
+      <c r="F73" s="206"/>
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C74" s="95">
         <f>Data!C6</f>
@@ -8077,7 +8084,7 @@
     </row>
     <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C75" s="95">
         <f>Data!C8</f>
@@ -8098,7 +8105,7 @@
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C76" s="118">
         <f>C74-C75</f>
@@ -8113,7 +8120,7 @@
     </row>
     <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C77" s="95">
         <f>Data!C10-Data!C12</f>
@@ -8134,7 +8141,7 @@
     </row>
     <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C78" s="118">
         <f>C76-C77</f>
@@ -8149,7 +8156,7 @@
     </row>
     <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C79" s="95">
         <f>Data!C17</f>
@@ -8170,7 +8177,7 @@
     </row>
     <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C80" s="95">
         <f>Data!C14+MAX(Data!C15,0)</f>
@@ -8190,7 +8197,7 @@
     </row>
     <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C81" s="95">
         <f>MAX(Data!C16,0)</f>
@@ -8209,12 +8216,12 @@
         <v>0</v>
       </c>
       <c r="H81" s="125" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C82" s="95">
         <f>MAX(Data!C18,0)</f>
@@ -8235,7 +8242,7 @@
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C83" s="100">
         <f>C78-C79-C80-C81-C82/(1-F84)</f>
@@ -8256,7 +8263,7 @@
     </row>
     <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C84" s="121"/>
       <c r="D84" s="134"/>
@@ -8267,7 +8274,7 @@
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C85" s="118">
         <f>C83*(1-F84)</f>
@@ -8288,7 +8295,7 @@
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C86" s="161">
         <f>C85*Data!E3/Common_Shares</f>
@@ -8303,7 +8310,7 @@
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C87" s="164">
         <v>0.1026</v>
@@ -8327,34 +8334,34 @@
     <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C89" s="21"/>
       <c r="H89" s="50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" s="201" t="s">
-        <v>174</v>
-      </c>
-      <c r="E90" s="201"/>
+        <v>171</v>
+      </c>
+      <c r="D90" s="211" t="s">
+        <v>172</v>
+      </c>
+      <c r="E90" s="211"/>
       <c r="G90" s="94"/>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C91" s="174" t="s">
-        <v>225</v>
-      </c>
-      <c r="D91" s="194" t="s">
-        <v>175</v>
-      </c>
-      <c r="E91" s="194"/>
+        <v>222</v>
+      </c>
+      <c r="D91" s="205" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91" s="205"/>
       <c r="F91" s="29">
         <f>E83/C68</f>
         <v>0.10118575838478229</v>
@@ -8370,10 +8377,10 @@
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>0.08</v>
       </c>
-      <c r="D92" s="194" t="s">
-        <v>171</v>
-      </c>
-      <c r="E92" s="194"/>
+      <c r="D92" s="205" t="s">
+        <v>169</v>
+      </c>
+      <c r="E92" s="205"/>
       <c r="F92" s="137">
         <v>0.02</v>
       </c>
@@ -8392,7 +8399,7 @@
     </row>
     <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
@@ -8405,7 +8412,7 @@
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
@@ -8420,7 +8427,7 @@
     </row>
     <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
@@ -8431,15 +8438,15 @@
         <v>-10.16734853738434</v>
       </c>
       <c r="E97" s="157" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F97" s="158" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
@@ -8460,22 +8467,22 @@
     </row>
     <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D100" s="165" t="str">
         <f>D94</f>
         <v>HKD</v>
       </c>
       <c r="E100" s="157" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F100" s="158" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
@@ -8496,10 +8503,10 @@
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C103" s="166" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b10873df2abd437/文档/Company_Investment/Opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{81CC1E11-8769-7346-B8E7-77899CF1825C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CDBF5E5-EE21-0D4F-A6AA-D240A828DEEB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8F2F22C-3C36-DA46-857A-3C90CD620B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1727,6 +1727,9 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1763,9 +1766,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1890,10 +1890,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2102,7 +2098,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2145,16 +2141,16 @@
       <c r="B3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="198" t="s">
+      <c r="C3" s="199" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="199"/>
+      <c r="D3" s="200"/>
       <c r="E3" s="94"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>19.04</v>
+        <v>19.040000915527344</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2164,37 +2160,37 @@
       <c r="B4" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="200" t="s">
+      <c r="C4" s="201" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="201"/>
+      <c r="D4" s="202"/>
       <c r="E4" s="94"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="204">
+      <c r="G4" s="205">
         <v>1462217799</v>
       </c>
-      <c r="H4" s="204"/>
+      <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="202">
+      <c r="C5" s="203">
         <v>45591</v>
       </c>
-      <c r="D5" s="203"/>
+      <c r="D5" s="204"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="196">
+      <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>27840.626892959997</v>
-      </c>
-      <c r="H5" s="196"/>
+        <v>27840.628231660379</v>
+      </c>
+      <c r="H5" s="197"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -2216,10 +2212,10 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="197" t="s">
+      <c r="G6" s="198" t="s">
         <v>221</v>
       </c>
-      <c r="H6" s="197"/>
+      <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2229,7 +2225,7 @@
       <c r="C7" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="212" t="s">
+      <c r="D7" s="196" t="s">
         <v>226</v>
       </c>
       <c r="E7" s="94"/>
@@ -2237,7 +2233,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>7.8</v>
+        <v>7.7698200543721514</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2258,7 +2254,7 @@
         <v>200</v>
       </c>
       <c r="C10" s="170">
-        <v>4.0899999999999999E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="125" t="s">
         <v>208</v>
@@ -2269,7 +2265,7 @@
         <v>204</v>
       </c>
       <c r="C11" s="184">
-        <v>5.1499999999999997E-2</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="D11" s="177" t="s">
         <v>217</v>
@@ -2286,7 +2282,6 @@
         <v>0.08</v>
       </c>
       <c r="D12" s="170">
-        <f>(C12+C17)/2</f>
         <v>9.6250000000000002E-2</v>
       </c>
       <c r="F12" s="125"/>
@@ -2333,7 +2328,6 @@
         <v>206</v>
       </c>
       <c r="C17" s="194">
-        <f>(C15+C16)/2</f>
         <v>0.1125</v>
       </c>
       <c r="D17" s="189"/>
@@ -2367,7 +2361,7 @@
       </c>
       <c r="G20" s="178">
         <f>Fin_Analysis!F91</f>
-        <v>0.10118575838478229</v>
+        <v>0.1033080260303688</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2411,7 +2405,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>2.2211021407113107</v>
+        <v>2.2297295702289373</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2419,15 +2413,15 @@
         <v>192</v>
       </c>
       <c r="C24" s="178">
-        <f>Fin_Analysis!F82</f>
-        <v>9.0430154247230065E-3</v>
+        <f>Fin_Analysis!F81</f>
+        <v>0</v>
       </c>
       <c r="F24" s="181" t="s">
         <v>199</v>
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>9.7859218848585991E-2</v>
+        <v>9.5697240539076661E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2443,7 +2437,7 @@
       </c>
       <c r="G25" s="178">
         <f>Fin_Analysis!F87</f>
-        <v>0.42950999506828114</v>
+        <v>0.437513987102362</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2452,14 +2446,14 @@
       </c>
       <c r="C26" s="178">
         <f>Fin_Analysis!F83</f>
-        <v>0.12160756362907141</v>
+        <v>0.12415815772322404</v>
       </c>
       <c r="F26" s="183" t="s">
         <v>227</v>
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.2031512605042017E-2</v>
+        <v>4.1868881262945225E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2487,16 +2481,16 @@
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>15.531756975966085</v>
+        <v>15.047227523742723</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>25.886261626610143</v>
+        <v>25.078712539571203</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>20.709009301288113</v>
+        <v>20.062970031656963</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -3451,10 +3445,10 @@
   </sheetPr>
   <dimension ref="A1:N928"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="137" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A30" zoomScale="137" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D14" sqref="D14"/>
+      <selection pane="topRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3965,11 +3959,11 @@
       </c>
       <c r="C19" s="95">
         <f>IF(C6="","",C13-C14-MAX(C15,0)-MAX(C16,0)-C17-MAX(C18/(1-Fin_Analysis!$F$84),0))</f>
-        <v>447.80769230769255</v>
+        <v>446.10000000000025</v>
       </c>
       <c r="D19" s="95">
         <f>IF(D6="","",D13-D14-MAX(D15,0)-MAX(D16,0)-D17-MAX(D18/(1-Fin_Analysis!$F$84),0))</f>
-        <v>249.07948717948699</v>
+        <v>247.76666666666648</v>
       </c>
       <c r="E19" s="95" t="str">
         <f>IF(E6="","",E13-E14-MAX(E15,0)-MAX(E16,0)-E17-MAX(E18/(1-Fin_Analysis!$F$84),0))</f>
@@ -4016,7 +4010,7 @@
       </c>
       <c r="C20" s="57">
         <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
-        <v>0.79785054714281534</v>
+        <v>0.80048432665142166</v>
       </c>
       <c r="D20" s="57" t="str">
         <f t="shared" ref="D20:M20" si="5">IF(E19="","",IF(ABS(D19+E19)=ABS(D19)+ABS(E19),IF(D19&lt;0,-1,1)*(D19-E19)/E19,"Turn"))</f>
@@ -4067,11 +4061,11 @@
       </c>
       <c r="C21" s="56">
         <f t="shared" ref="C21:M21" si="6">IF(C6="","",C22/C6)</f>
-        <v>9.4853899630675698E-2</v>
+        <v>9.0857864436237279E-2</v>
       </c>
       <c r="D21" s="56">
         <f t="shared" si="6"/>
-        <v>6.7468398388665043E-2</v>
+        <v>6.4531532157244026E-2</v>
       </c>
       <c r="E21" s="56" t="str">
         <f t="shared" si="6"/>
@@ -4118,11 +4112,11 @@
       </c>
       <c r="C22" s="102">
         <f>IF(C6="","",C19*(1-Fin_Analysis!$F$84))</f>
-        <v>349.29000000000019</v>
+        <v>334.57500000000016</v>
       </c>
       <c r="D22" s="95">
         <f>IF(D6="","",D19*(1-Fin_Analysis!$F$84))</f>
-        <v>194.28199999999987</v>
+        <v>185.82499999999987</v>
       </c>
       <c r="E22" s="95" t="str">
         <f>IF(E6="","",E19*(1-Fin_Analysis!$F$84))</f>
@@ -4169,7 +4163,7 @@
       </c>
       <c r="C23" s="80">
         <f>IF(D22="","",IF(ABS(C22+D22)=ABS(C22)+ABS(D22),IF(C22&lt;0,-1,1)*(C22-D22)/D22,"Turn"))</f>
-        <v>0.79785054714281523</v>
+        <v>0.80048432665142144</v>
       </c>
       <c r="D23" s="80" t="str">
         <f t="shared" ref="D23:M23" si="7">IF(E22="","",IF(ABS(D22+E22)=ABS(D22)+ABS(E22),IF(D22&lt;0,-1,1)*(D22-E22)/E22,"Turn"))</f>
@@ -4634,7 +4628,7 @@
       </c>
       <c r="C38" s="104">
         <f>IF(C6="","",C19/C37)</f>
-        <v>0.10118575838478229</v>
+        <v>0.10079989154013019</v>
       </c>
       <c r="D38" s="104" t="e">
         <f t="shared" ref="D38:M38" si="20">IF(D6="","",D19/D37)</f>
@@ -4958,11 +4952,11 @@
       </c>
       <c r="C45" s="56">
         <f>IF(C6="","",MAX(C18,0)/(1-Fin_Analysis!$F$84)/C6)</f>
-        <v>1.1593609518875649E-2</v>
+        <v>1.2057353899630675E-2</v>
       </c>
       <c r="D45" s="56">
         <f>IF(D6="","",MAX(D18,0)/(1-Fin_Analysis!$F$84)/D6)</f>
-        <v>1.1397594395232958E-2</v>
+        <v>1.1853498171042275E-2</v>
       </c>
       <c r="E45" s="56" t="str">
         <f>IF(E6="","",MAX(E18,0)/(1-Fin_Analysis!$F$84)/E6)</f>
@@ -5009,11 +5003,11 @@
       </c>
       <c r="C46" s="56">
         <f t="shared" ref="C46:M46" si="26">IF(C6="","",C19/C6)</f>
-        <v>0.12160756362907141</v>
+        <v>0.12114381924831638</v>
       </c>
       <c r="D46" s="56">
         <f t="shared" si="26"/>
-        <v>8.6497946652134672E-2</v>
+        <v>8.6042042876325359E-2</v>
       </c>
       <c r="E46" s="56" t="str">
         <f t="shared" si="26"/>
@@ -5247,7 +5241,7 @@
       </c>
       <c r="C52" s="60">
         <f t="shared" ref="C52:M52" si="30">IF(C19="","",IF(C33&lt;=0,"-",C19/C33))</f>
-        <v>0.18251047126984535</v>
+        <v>0.18181447668731671</v>
       </c>
       <c r="D52" s="60" t="str">
         <f t="shared" si="30"/>
@@ -5297,11 +5291,11 @@
       </c>
       <c r="C53" s="56">
         <f t="shared" ref="C53:M53" si="31">IF(C19="","",IF(C17&lt;=0,"-",C17/C19))</f>
-        <v>0.38632654814051343</v>
+        <v>0.38780542479264718</v>
       </c>
       <c r="D53" s="56">
         <f t="shared" si="31"/>
-        <v>0.55524443849661875</v>
+        <v>0.55818646576079689</v>
       </c>
       <c r="E53" s="56" t="str">
         <f t="shared" si="31"/>
@@ -6678,8 +6672,8 @@
   </sheetPr>
   <dimension ref="A2:K103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView showGridLines="0" topLeftCell="A63" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6772,11 +6766,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>-2190.5331842251198</v>
+        <v>-2191.6383579463277</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>2.3631195919260231</v>
+        <v>2.3638073167058664</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -7761,11 +7755,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.2211021407113107</v>
+        <v>2.2297295702289373</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>284.52318422511973</v>
+        <v>285.6283579463277</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
@@ -7797,11 +7791,11 @@
         <v>91</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="209">
+      <c r="D56" s="210">
         <f>I15+I34</f>
         <v>2453.6</v>
       </c>
-      <c r="E56" s="210"/>
+      <c r="E56" s="211"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="94"/>
@@ -7812,10 +7806,10 @@
         <v>92</v>
       </c>
       <c r="C57" s="94"/>
-      <c r="D57" s="204">
+      <c r="D57" s="205">
         <v>0</v>
       </c>
-      <c r="E57" s="203"/>
+      <c r="E57" s="204"/>
       <c r="G57" s="94"/>
       <c r="H57" s="94" t="s">
         <v>93</v>
@@ -7827,10 +7821,10 @@
         <v>94</v>
       </c>
       <c r="C58" s="94"/>
-      <c r="D58" s="204">
+      <c r="D58" s="205">
         <v>0</v>
       </c>
-      <c r="E58" s="203"/>
+      <c r="E58" s="204"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="94"/>
@@ -8044,11 +8038,11 @@
       <c r="B72" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="207">
+      <c r="C72" s="208">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="207"/>
+      <c r="D72" s="208"/>
       <c r="H72" s="50" t="s">
         <v>8</v>
       </c>
@@ -8058,14 +8052,14 @@
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="206" t="s">
+      <c r="C73" s="207" t="s">
         <v>104</v>
       </c>
-      <c r="D73" s="206"/>
-      <c r="E73" s="208" t="s">
+      <c r="D73" s="207"/>
+      <c r="E73" s="209" t="s">
         <v>105</v>
       </c>
-      <c r="F73" s="206"/>
+      <c r="F73" s="207"/>
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
@@ -8245,20 +8239,20 @@
         <v>135</v>
       </c>
       <c r="C83" s="100">
-        <f>C78-C79-C80-C81-C82/(1-F84)</f>
-        <v>447.80769230769255</v>
+        <f>C78-C79-C80-C81-C82</f>
+        <v>457.20000000000022</v>
       </c>
       <c r="D83" s="133">
         <f>C83/$C$74</f>
-        <v>0.12160756362907141</v>
+        <v>0.12415815772322404</v>
       </c>
       <c r="E83" s="152">
-        <f>E78-E79-E80-E81-E82/(1-F84)</f>
-        <v>447.80769230769255</v>
+        <f>E78-E79-E80-E81-E82</f>
+        <v>457.20000000000022</v>
       </c>
       <c r="F83" s="135">
         <f t="shared" si="8"/>
-        <v>0.12160756362907141</v>
+        <v>0.12415815772322404</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -8269,7 +8263,7 @@
       <c r="D84" s="134"/>
       <c r="E84" s="153"/>
       <c r="F84" s="136">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8278,19 +8272,19 @@
       </c>
       <c r="C85" s="118">
         <f>C83*(1-F84)</f>
-        <v>349.29000000000019</v>
+        <v>342.90000000000015</v>
       </c>
       <c r="D85" s="135">
         <f>C85/$C$74</f>
-        <v>9.4853899630675698E-2</v>
+        <v>9.3118618292418021E-2</v>
       </c>
       <c r="E85" s="154">
         <f>E83*(1-F84)</f>
-        <v>349.29000000000019</v>
+        <v>342.90000000000015</v>
       </c>
       <c r="F85" s="135">
         <f>E85/$E$74</f>
-        <v>9.4853899630675698E-2</v>
+        <v>9.3118618292418021E-2</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8299,12 +8293,12 @@
       </c>
       <c r="C86" s="161">
         <f>C85*Data!E3/Common_Shares</f>
-        <v>0.23887686242013811</v>
+        <v>0.23450678841039066</v>
       </c>
       <c r="D86" s="130"/>
       <c r="E86" s="163">
         <f>E85*Data!E3/Common_Shares</f>
-        <v>0.23887686242013811</v>
+        <v>0.23450678841039066</v>
       </c>
       <c r="F86" s="130"/>
     </row>
@@ -8317,14 +8311,14 @@
       </c>
       <c r="D87" s="135">
         <f>C87/C86</f>
-        <v>0.42950999506828114</v>
+        <v>0.437513987102362</v>
       </c>
       <c r="E87" s="162">
         <v>0.1026</v>
       </c>
       <c r="F87" s="135">
         <f>E87/E86</f>
-        <v>0.42950999506828114</v>
+        <v>0.437513987102362</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8345,10 +8339,10 @@
       <c r="B90" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D90" s="211" t="s">
+      <c r="D90" s="212" t="s">
         <v>172</v>
       </c>
-      <c r="E90" s="211"/>
+      <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8358,13 +8352,13 @@
       <c r="C91" s="174" t="s">
         <v>222</v>
       </c>
-      <c r="D91" s="205" t="s">
+      <c r="D91" s="206" t="s">
         <v>173</v>
       </c>
-      <c r="E91" s="205"/>
+      <c r="E91" s="206"/>
       <c r="F91" s="29">
         <f>E83/C68</f>
-        <v>0.10118575838478229</v>
+        <v>0.1033080260303688</v>
       </c>
       <c r="H91" s="187"/>
     </row>
@@ -8377,10 +8371,10 @@
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>0.08</v>
       </c>
-      <c r="D92" s="205" t="s">
+      <c r="D92" s="206" t="s">
         <v>169</v>
       </c>
-      <c r="E92" s="205"/>
+      <c r="E92" s="206"/>
       <c r="F92" s="137">
         <v>0.02</v>
       </c>
@@ -8403,11 +8397,11 @@
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>45407.700000000026</v>
+        <v>44404.521610736869</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>31.053992114617955</v>
+        <v>30.367925791291007</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8416,11 +8410,11 @@
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>259.73999999999995</v>
+        <v>258.73500781059261</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>0.1776342759455084</v>
+        <v>0.176946969177601</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
@@ -8431,11 +8425,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-14866.877999999999</v>
+        <v>-14809.354721833864</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-10.16734853738434</v>
+        <v>-10.128008790456438</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>144</v>
@@ -8450,19 +8444,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>30281.082000000031</v>
+        <v>29336.431881092409</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>20.709009301288113</v>
+        <v>20.062970031656963</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>15.531756975966085</v>
+        <v>15.047227523742723</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>25.886261626610143</v>
+        <v>25.078712539571203</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8486,19 +8480,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>19503.061003062001</v>
+        <v>19427.599295286484</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>13.337999999999999</v>
+        <v>13.286392292976378</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>10.003499999999999</v>
+        <v>9.9647942197322834</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>16.672499999999999</v>
+        <v>16.607990366220474</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8F2F22C-3C36-DA46-857A-3C90CD620B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8E77FF6-ABD0-464E-9791-B7E579F3E076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -815,16 +804,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1279,7 +1268,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1335,8 +1324,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1359,14 +1348,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1391,7 +1380,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1408,7 +1397,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1416,7 +1405,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1463,7 +1452,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1537,7 +1526,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1616,10 +1605,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1630,16 +1619,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1703,7 +1692,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1712,10 +1701,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1730,7 +1719,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1744,7 +1733,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1752,13 +1741,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1768,9 +1757,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2101,19 +2090,19 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2122,7 +2111,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2137,7 +2126,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>228</v>
       </c>
@@ -2150,13 +2139,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>19.040000915527344</v>
+        <v>19</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>229</v>
       </c>
@@ -2174,7 +2163,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>181</v>
       </c>
@@ -2188,13 +2177,13 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>27840.628231660379</v>
+        <v>27782.138180999998</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2207,7 @@
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>225</v>
       </c>
@@ -2233,15 +2222,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>7.7698200543721514</v>
+        <v>7.7704801559448242</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>USD/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="180" t="s">
         <v>223</v>
       </c>
@@ -2249,7 +2238,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>200</v>
       </c>
@@ -2260,7 +2249,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="147" t="s">
         <v>204</v>
       </c>
@@ -2274,7 +2263,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>143</v>
       </c>
@@ -2286,8 +2275,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>201</v>
       </c>
@@ -2298,7 +2287,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>213</v>
       </c>
@@ -2309,7 +2298,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="147" t="s">
         <v>214</v>
       </c>
@@ -2323,7 +2312,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>206</v>
       </c>
@@ -2332,8 +2321,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="185" t="s">
         <v>210</v>
       </c>
@@ -2348,7 +2337,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="177" t="s">
         <v>188</v>
       </c>
@@ -2364,7 +2353,7 @@
         <v>0.1033080260303688</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="177" t="s">
         <v>189</v>
       </c>
@@ -2380,7 +2369,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="177" t="s">
         <v>190</v>
       </c>
@@ -2392,7 +2381,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="177" t="s">
         <v>191</v>
       </c>
@@ -2405,10 +2394,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>2.2297295702289373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.2248561400381894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="177" t="s">
         <v>192</v>
       </c>
@@ -2421,10 +2410,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>9.5697240539076661E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9.5906860304068017E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="177" t="s">
         <v>224</v>
       </c>
@@ -2440,7 +2429,7 @@
         <v>0.437513987102362</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="179" t="s">
         <v>194</v>
       </c>
@@ -2453,11 +2442,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.1868881262945225E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4.1960592842102053E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2475,919 +2464,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>187</v>
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>15.047227523742723</v>
+        <v>15.048505892930596</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>25.078712539571203</v>
+        <v>25.080843154884324</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>20.062970031656963</v>
+        <v>20.06467452390746</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3451,7 +3440,7 @@
       <selection pane="topRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3459,7 +3448,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3467,7 +3456,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3484,7 +3473,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3510,13 +3499,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>147</v>
@@ -3566,7 +3555,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3588,7 +3577,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3639,7 +3628,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>110</v>
@@ -3661,7 +3650,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>106</v>
@@ -3712,7 +3701,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>108</v>
@@ -3734,7 +3723,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>101</v>
@@ -3785,7 +3774,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>109</v>
@@ -3803,7 +3792,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>107</v>
@@ -3854,7 +3843,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>111</v>
@@ -3872,7 +3861,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>112</v>
@@ -3890,7 +3879,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>114</v>
@@ -3908,7 +3897,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>130</v>
@@ -3930,7 +3919,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>115</v>
@@ -3952,7 +3941,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>116</v>
@@ -4003,7 +3992,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>117</v>
@@ -4054,7 +4043,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>118</v>
@@ -4105,7 +4094,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>119</v>
@@ -4156,7 +4145,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>139</v>
@@ -4207,7 +4196,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>148</v>
@@ -4258,7 +4247,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4309,7 +4298,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4330,7 +4319,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>122</v>
@@ -4351,7 +4340,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>162</v>
@@ -4372,7 +4361,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4393,7 +4382,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>121</v>
@@ -4414,7 +4403,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4435,7 +4424,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4456,7 +4445,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4507,7 +4496,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>151</v>
@@ -4528,7 +4517,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>152</v>
@@ -4549,7 +4538,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>150</v>
@@ -4570,7 +4559,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>154</v>
@@ -4621,7 +4610,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>174</v>
@@ -4672,7 +4661,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>133</v>
@@ -4690,7 +4679,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>100</v>
@@ -4741,7 +4730,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>127</v>
@@ -4792,7 +4781,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>102</v>
@@ -4843,7 +4832,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>113</v>
@@ -4894,7 +4883,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>128</v>
@@ -4945,7 +4934,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>140</v>
@@ -4996,7 +4985,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>131</v>
@@ -5047,7 +5036,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>163</v>
@@ -5065,7 +5054,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>160</v>
@@ -5116,7 +5105,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>161</v>
@@ -5167,7 +5156,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>132</v>
@@ -5184,7 +5173,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5234,7 +5223,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>126</v>
@@ -5284,7 +5273,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>129</v>
@@ -5334,7 +5323,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5384,1260 +5373,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6676,7 +6665,7 @@
       <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6685,11 +6674,11 @@
     <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6705,7 +6694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6728,7 +6717,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6744,7 +6733,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6759,18 +6748,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>-2191.6383579463277</v>
+        <v>-2191.0140715388929</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>2.3638073167058664</v>
+        <v>2.3634188372986262</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6784,7 +6773,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6807,13 +6796,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6832,7 +6821,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6857,7 +6846,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
@@ -6883,7 +6872,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>149</v>
       </c>
@@ -6906,7 +6895,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>122</v>
       </c>
@@ -6929,7 +6918,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
@@ -6950,7 +6939,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
@@ -6973,7 +6962,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>175</v>
       </c>
@@ -6991,7 +6980,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>123</v>
       </c>
@@ -7011,7 +7000,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
@@ -7030,7 +7019,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
@@ -7050,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>125</v>
       </c>
@@ -7072,7 +7061,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>51</v>
       </c>
@@ -7089,7 +7078,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>52</v>
       </c>
@@ -7111,7 +7100,7 @@
         <v>961.60000000000014</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7120,7 +7109,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>54</v>
       </c>
@@ -7142,7 +7131,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>56</v>
       </c>
@@ -7171,7 +7160,7 @@
         <v>1.2036682480515077</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>58</v>
       </c>
@@ -7204,7 +7193,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>60</v>
       </c>
@@ -7237,7 +7226,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7266,7 +7255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7278,7 +7267,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
@@ -7299,7 +7288,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
@@ -7321,7 +7310,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>66</v>
       </c>
@@ -7341,7 +7330,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>176</v>
       </c>
@@ -7367,7 +7356,7 @@
       </c>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>69</v>
       </c>
@@ -7390,7 +7379,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>71</v>
       </c>
@@ -7411,7 +7400,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
@@ -7433,7 +7422,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
@@ -7455,7 +7444,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>124</v>
       </c>
@@ -7475,7 +7464,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>74</v>
       </c>
@@ -7492,7 +7481,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>75</v>
       </c>
@@ -7511,7 +7500,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
@@ -7530,7 +7519,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
@@ -7555,7 +7544,7 @@
         <v>218.90000000000009</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7564,7 +7553,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>78</v>
       </c>
@@ -7583,7 +7572,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>80</v>
       </c>
@@ -7602,7 +7591,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>81</v>
       </c>
@@ -7632,7 +7621,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>83</v>
       </c>
@@ -7662,7 +7651,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>85</v>
       </c>
@@ -7688,7 +7677,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7715,20 +7704,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>89</v>
       </c>
@@ -7745,7 +7734,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>90</v>
       </c>
@@ -7755,18 +7744,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.2297295702289373</v>
+        <v>2.2248561400381894</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>285.6283579463277</v>
+        <v>285.0040715388929</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7775,7 +7764,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>164</v>
       </c>
@@ -7786,7 +7775,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>91</v>
       </c>
@@ -7801,7 +7790,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>92</v>
       </c>
@@ -7816,7 +7805,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>94</v>
       </c>
@@ -7830,7 +7819,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7839,7 +7828,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>167</v>
       </c>
@@ -7853,7 +7842,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>96</v>
       </c>
@@ -7874,7 +7863,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>153</v>
       </c>
@@ -7895,7 +7884,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>155</v>
       </c>
@@ -7916,7 +7905,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="146" t="s">
         <v>165</v>
       </c>
@@ -7931,7 +7920,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>156</v>
       </c>
@@ -7952,7 +7941,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -7962,7 +7951,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>168</v>
       </c>
@@ -7976,7 +7965,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>154</v>
       </c>
@@ -7997,7 +7986,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="146" t="s">
         <v>166</v>
       </c>
@@ -8012,7 +8001,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>157</v>
       </c>
@@ -8033,7 +8022,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>138</v>
@@ -8047,7 +8036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
@@ -8061,7 +8050,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>137</v>
       </c>
@@ -8076,7 +8065,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>110</v>
       </c>
@@ -8097,7 +8086,7 @@
         <v>0.40723441233977836</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>97</v>
       </c>
@@ -8112,7 +8101,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>134</v>
       </c>
@@ -8133,7 +8122,7 @@
         <v>0.41258418422767756</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>98</v>
       </c>
@@ -8148,7 +8137,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>130</v>
       </c>
@@ -8169,7 +8158,7 @@
         <v>4.6980230284597004E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>136</v>
       </c>
@@ -8189,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>114</v>
       </c>
@@ -8213,7 +8202,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>193</v>
       </c>
@@ -8234,7 +8223,7 @@
         <v>9.0430154247230065E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>135</v>
       </c>
@@ -8255,7 +8244,7 @@
         <v>0.12415815772322404</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>99</v>
       </c>
@@ -8266,7 +8255,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>182</v>
       </c>
@@ -8287,7 +8276,7 @@
         <v>9.3118618292418021E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>177</v>
       </c>
@@ -8302,7 +8291,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>178</v>
       </c>
@@ -8321,11 +8310,11 @@
         <v>0.437513987102362</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>170</v>
@@ -8335,7 +8324,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>171</v>
       </c>
@@ -8345,7 +8334,7 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>197</v>
       </c>
@@ -8362,7 +8351,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8380,7 +8369,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8391,45 +8380,45 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>44404.521610736869</v>
+        <v>44408.294091224692</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>30.367925791291007</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30.370505762954874</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>158</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>258.73500781059261</v>
+        <v>258.75698919296264</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>0.176946969177601</v>
+        <v>0.17696200208335902</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>159</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-14809.354721833864</v>
+        <v>-14810.612882032394</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-10.128008790456438</v>
+        <v>-10.128869236964057</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>144</v>
@@ -8438,28 +8427,28 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>29336.431881092409</v>
+        <v>29338.924219999339</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>20.062970031656963</v>
+        <v>20.06467452390746</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>15.047227523742723</v>
+        <v>15.048505892930596</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>25.078712539571203</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25.080843154884324</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>180</v>
       </c>
@@ -8474,28 +8463,28 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>19427.599295286484</v>
+        <v>19429.249808265977</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>13.286392292976378</v>
+        <v>13.287521066665649</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>9.9647942197322834</v>
+        <v>9.9656407999992371</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>16.607990366220474</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16.609401333332062</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>183</v>
       </c>

--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8E77FF6-ABD0-464E-9791-B7E579F3E076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B69654E7-8BFA-48DD-BF0E-29A3279CEC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>19</v>
+        <v>19.059999465942383</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>27782.138180999998</v>
+        <v>27869.870468031448</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
@@ -2222,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>7.7704801559448242</v>
+        <v>7.7703200976053877</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>2.2248561400381894</v>
+        <v>2.2319279128186378</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>9.5906860304068017E-2</v>
+        <v>9.560298331939425E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.1960592842102053E-2</v>
+        <v>4.182764241094878E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2470,16 +2470,16 @@
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>15.048505892930596</v>
+        <v>15.048195919953905</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>25.080843154884324</v>
+        <v>25.08032653325651</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>20.06467452390746</v>
+        <v>20.064261226605208</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -6755,11 +6755,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>-2191.0140715388929</v>
+        <v>-2191.9199656320684</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>2.3634188372986262</v>
+        <v>2.3639825548426057</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -7744,11 +7744,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.2248561400381894</v>
+        <v>2.2319279128186378</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>285.0040715388929</v>
+        <v>285.90996563206829</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
@@ -8386,11 +8386,11 @@
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>44408.294091224692</v>
+        <v>44407.379357814811</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>30.370505762954874</v>
+        <v>30.369880183502548</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8399,11 +8399,11 @@
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>258.75698919296264</v>
+        <v>258.75165925025937</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>0.17696200208335902</v>
+        <v>0.17695835697473913</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
@@ -8414,11 +8414,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-14810.612882032394</v>
+        <v>-14810.307809236845</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-10.128869236964057</v>
+        <v>-10.1286605999226</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>144</v>
@@ -8433,19 +8433,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>29338.924219999339</v>
+        <v>29338.319889327708</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>20.06467452390746</v>
+        <v>20.064261226605208</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>15.048505892930596</v>
+        <v>15.048195919953905</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>25.080843154884324</v>
+        <v>25.08032653325651</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8469,19 +8469,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>19429.249808265977</v>
+        <v>19428.849599604688</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>13.287521066665649</v>
+        <v>13.287247366905213</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>9.9656407999992371</v>
+        <v>9.9654355251789095</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>16.609401333332062</v>
+        <v>16.609059208631514</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B69654E7-8BFA-48DD-BF0E-29A3279CEC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D8E9BB7-6B8D-448D-B589-EBBC25CCBC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>19.059999465942383</v>
+        <v>19.040000915527344</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>27869.870468031448</v>
+        <v>27840.628231660379</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
@@ -2222,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>7.7703200976053877</v>
+        <v>7.7702201207478838</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>2.2319279128186378</v>
+        <v>2.2296147678405664</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>9.560298331939425E-2</v>
+        <v>9.5702167969560534E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.182764241094878E-2</v>
+        <v>4.1871037082702393E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2470,16 +2470,16 @@
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>15.048195919953905</v>
+        <v>15.04800230227532</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>25.08032653325651</v>
+        <v>25.080003837125531</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>20.064261226605208</v>
+        <v>20.064003069700426</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -6755,11 +6755,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>-2191.9199656320684</v>
+        <v>-2191.6236517603775</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>2.3639825548426057</v>
+        <v>2.3637981653767124</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -7744,11 +7744,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.2319279128186378</v>
+        <v>2.2296147678405664</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>285.90996563206829</v>
+        <v>285.61365176037737</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
@@ -8386,11 +8386,11 @@
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>44407.379357814811</v>
+        <v>44406.80799007418</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>30.369880183502548</v>
+        <v>30.369489429306405</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8399,11 +8399,11 @@
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>258.75165925025937</v>
+        <v>258.74833002090452</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>0.17695835697473913</v>
+        <v>0.17695608013926556</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
@@ -8414,11 +8414,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-14810.307809236845</v>
+        <v>-14810.117252346674</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-10.1286605999226</v>
+        <v>-10.128530279466714</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>144</v>
@@ -8433,19 +8433,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>29338.319889327708</v>
+        <v>29337.9424077066</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>20.064261226605208</v>
+        <v>20.064003069700426</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>15.048195919953905</v>
+        <v>15.04800230227532</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>25.08032653325651</v>
+        <v>25.080003837125531</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8469,19 +8469,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>19428.849599604688</v>
+        <v>19428.599618226381</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>13.287247366905213</v>
+        <v>13.287076406478882</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>9.9654355251789095</v>
+        <v>9.9653073048591612</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>16.609059208631514</v>
+        <v>16.608845508098604</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D8E9BB7-6B8D-448D-B589-EBBC25CCBC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC16403-82C3-4E77-8DC5-84277DCE9094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -766,9 +766,6 @@
     <t>Others</t>
   </si>
   <si>
-    <t>SAMSONITE INTERNATIONAL</t>
-  </si>
-  <si>
     <t>1910.HK</t>
   </si>
   <si>
@@ -797,6 +794,10 @@
   </si>
   <si>
     <t>Name:</t>
+  </si>
+  <si>
+    <t>SAMSONITE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2087,7 +2088,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2118,7 +2119,7 @@
       </c>
       <c r="C2" s="25" t="str">
         <f>C3&amp;" : "&amp;C4</f>
-        <v>1910.HK : SAMSONITE INTERNATIONAL</v>
+        <v>1910.HK : SAMSONITE</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="7"/>
@@ -2128,10 +2129,10 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C3" s="199" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D3" s="200"/>
       <c r="E3" s="94"/>
@@ -2147,10 +2148,10 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="201" t="s">
         <v>229</v>
-      </c>
-      <c r="C4" s="201" t="s">
-        <v>219</v>
       </c>
       <c r="D4" s="202"/>
       <c r="E4" s="94"/>
@@ -2202,20 +2203,20 @@
         <v>5</v>
       </c>
       <c r="G6" s="198" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="190" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="196" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E7" s="94"/>
       <c r="F7" s="35" t="s">
@@ -2232,7 +2233,7 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="180" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F9" s="186" t="s">
         <v>212</v>
@@ -2415,7 +2416,7 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="177" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" s="178">
         <f>Fin_Analysis!F82</f>
@@ -2438,7 +2439,7 @@
         <v>0.12415815772322404</v>
       </c>
       <c r="F26" s="183" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
@@ -8339,7 +8340,7 @@
         <v>197</v>
       </c>
       <c r="C91" s="174" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D91" s="206" t="s">
         <v>173</v>

--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC16403-82C3-4E77-8DC5-84277DCE9094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2A51E1E-75D7-4EEF-9F0C-C383F5AC3674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>19.040000915527344</v>
+        <v>19.079999923706055</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>27840.628231660379</v>
+        <v>27899.115493361634</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
@@ -2223,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>7.7702201207478838</v>
+        <v>7.770253499348958</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>2.2296147678405664</v>
+        <v>2.2342891182548992</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>9.5702167969560534E-2</v>
+        <v>9.5501949714525386E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.1871037082702393E-2</v>
+        <v>4.1783438795651287E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2471,16 +2471,16 @@
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>15.04800230227532</v>
+        <v>15.0480669441076</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>25.080003837125531</v>
+        <v>25.080111573512664</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>20.064003069700426</v>
+        <v>20.064089258810132</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -6756,11 +6756,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>-2191.6236517603775</v>
+        <v>-2192.2224360484533</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>2.3637981653767124</v>
+        <v>2.3641707753879606</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -7745,11 +7745,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.2296147678405664</v>
+        <v>2.2342891182548992</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>285.61365176037737</v>
+        <v>286.21243604845341</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
@@ -8387,11 +8387,11 @@
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>44406.80799007418</v>
+        <v>44406.998748779319</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>30.369489429306405</v>
+        <v>30.369619887782065</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8400,11 +8400,11 @@
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>258.74833002090452</v>
+        <v>258.74944152832029</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>0.17695608013926556</v>
+        <v>0.1769568402910135</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
@@ -8415,11 +8415,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-14810.117252346674</v>
+        <v>-14810.180872294108</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-10.128530279466714</v>
+        <v>-10.128573788680921</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>144</v>
@@ -8434,19 +8434,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>29337.9424077066</v>
+        <v>29338.068434956891</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>20.064003069700426</v>
+        <v>20.064089258810132</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>15.04800230227532</v>
+        <v>15.0480669441076</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>25.080003837125531</v>
+        <v>25.080111573512664</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8470,19 +8470,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>19428.599618226381</v>
+        <v>19428.683077828038</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>13.287076406478882</v>
+        <v>13.287133483886718</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>9.9653073048591612</v>
+        <v>9.9653501129150381</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>16.608845508098604</v>
+        <v>16.608916854858396</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2A51E1E-75D7-4EEF-9F0C-C383F5AC3674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5329D0CD-6846-C747-BE47-A7E9AEEA5F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -805,16 +816,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1269,7 +1280,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1325,8 +1336,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1349,14 +1360,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1381,7 +1392,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1398,7 +1409,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1406,7 +1417,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1453,7 +1464,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1527,7 +1538,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1606,10 +1617,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1620,16 +1631,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1693,7 +1704,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1702,10 +1713,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1720,7 +1731,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1734,7 +1745,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1742,13 +1753,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1758,9 +1769,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2091,19 +2102,19 @@
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2112,7 +2123,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2127,7 +2138,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>227</v>
       </c>
@@ -2146,7 +2157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>228</v>
       </c>
@@ -2164,7 +2175,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>181</v>
       </c>
@@ -2184,7 +2195,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2208,7 +2219,7 @@
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>224</v>
       </c>
@@ -2223,15 +2234,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>7.770253499348958</v>
+        <v>7.7703234354654951</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>USD/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="180" t="s">
         <v>222</v>
       </c>
@@ -2239,7 +2250,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>200</v>
       </c>
@@ -2250,12 +2261,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="147" t="s">
         <v>204</v>
       </c>
       <c r="C11" s="184">
-        <v>5.2900000000000003E-2</v>
+        <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="177" t="s">
         <v>217</v>
@@ -2264,7 +2275,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>143</v>
       </c>
@@ -2276,8 +2287,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>201</v>
       </c>
@@ -2288,7 +2299,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>213</v>
       </c>
@@ -2299,7 +2310,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="147" t="s">
         <v>214</v>
       </c>
@@ -2313,7 +2324,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>206</v>
       </c>
@@ -2322,8 +2333,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="185" t="s">
         <v>210</v>
       </c>
@@ -2338,7 +2349,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="177" t="s">
         <v>188</v>
       </c>
@@ -2354,7 +2365,7 @@
         <v>0.1033080260303688</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="177" t="s">
         <v>189</v>
       </c>
@@ -2370,7 +2381,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="177" t="s">
         <v>190</v>
       </c>
@@ -2382,7 +2393,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="177" t="s">
         <v>191</v>
       </c>
@@ -2395,10 +2406,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>2.2342891182548992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.2342690087310872</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="177" t="s">
         <v>192</v>
       </c>
@@ -2411,10 +2422,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>9.5501949714525386E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>9.550280927920822E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="177" t="s">
         <v>223</v>
       </c>
@@ -2430,7 +2441,7 @@
         <v>0.437513987102362</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="179" t="s">
         <v>194</v>
       </c>
@@ -2443,11 +2454,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.1783438795651287E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>4.1783814867222845E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2465,919 +2476,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>187</v>
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>15.0480669441076</v>
+        <v>15.048202384137131</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>25.080111573512664</v>
+        <v>25.08033730689522</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>20.064089258810132</v>
+        <v>20.064269845516176</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3441,7 +3452,7 @@
       <selection pane="topRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3449,7 +3460,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3457,7 +3468,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3474,7 +3485,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3500,13 +3511,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>147</v>
@@ -3556,7 +3567,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3578,7 +3589,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3629,7 +3640,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>110</v>
@@ -3651,7 +3662,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>106</v>
@@ -3702,7 +3713,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>108</v>
@@ -3724,7 +3735,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>101</v>
@@ -3775,7 +3786,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>109</v>
@@ -3793,7 +3804,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>107</v>
@@ -3844,7 +3855,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>111</v>
@@ -3862,7 +3873,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>112</v>
@@ -3880,7 +3891,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>114</v>
@@ -3898,7 +3909,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>130</v>
@@ -3920,7 +3931,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>115</v>
@@ -3942,7 +3953,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>116</v>
@@ -3993,7 +4004,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>117</v>
@@ -4044,7 +4055,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>118</v>
@@ -4095,7 +4106,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>119</v>
@@ -4146,7 +4157,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>139</v>
@@ -4197,7 +4208,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>148</v>
@@ -4248,7 +4259,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4299,7 +4310,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4320,7 +4331,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>122</v>
@@ -4341,7 +4352,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>162</v>
@@ -4362,7 +4373,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4383,7 +4394,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>121</v>
@@ -4404,7 +4415,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4425,7 +4436,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4446,7 +4457,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4497,7 +4508,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>151</v>
@@ -4518,7 +4529,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>152</v>
@@ -4539,7 +4550,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>150</v>
@@ -4560,7 +4571,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>154</v>
@@ -4611,7 +4622,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>174</v>
@@ -4662,7 +4673,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>133</v>
@@ -4680,7 +4691,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>100</v>
@@ -4731,7 +4742,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>127</v>
@@ -4782,7 +4793,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>102</v>
@@ -4833,7 +4844,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>113</v>
@@ -4884,7 +4895,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>128</v>
@@ -4935,7 +4946,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>140</v>
@@ -4986,7 +4997,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>131</v>
@@ -5037,7 +5048,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>163</v>
@@ -5055,7 +5066,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>160</v>
@@ -5106,7 +5117,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>161</v>
@@ -5157,7 +5168,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>132</v>
@@ -5174,7 +5185,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5224,7 +5235,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>126</v>
@@ -5274,7 +5285,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>129</v>
@@ -5324,7 +5335,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5374,1260 +5385,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6666,7 +6677,7 @@
       <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6675,11 +6686,11 @@
     <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6695,7 +6706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6718,7 +6729,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6734,7 +6745,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6749,18 +6760,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>-2192.2224360484533</v>
+        <v>-2192.2198600184529</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>2.3641707753879606</v>
+        <v>2.3641691723823599</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6774,7 +6785,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6797,13 +6808,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6822,7 +6833,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6847,7 +6858,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
@@ -6873,7 +6884,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>149</v>
       </c>
@@ -6896,7 +6907,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>122</v>
       </c>
@@ -6919,7 +6930,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
@@ -6940,7 +6951,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
@@ -6963,7 +6974,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>175</v>
       </c>
@@ -6981,7 +6992,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>123</v>
       </c>
@@ -7001,7 +7012,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
@@ -7020,7 +7031,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
@@ -7040,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>125</v>
       </c>
@@ -7062,7 +7073,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>51</v>
       </c>
@@ -7079,7 +7090,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>52</v>
       </c>
@@ -7101,7 +7112,7 @@
         <v>961.60000000000014</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7110,7 +7121,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>54</v>
       </c>
@@ -7132,7 +7143,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>56</v>
       </c>
@@ -7161,7 +7172,7 @@
         <v>1.2036682480515077</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>58</v>
       </c>
@@ -7194,7 +7205,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>60</v>
       </c>
@@ -7227,7 +7238,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7256,7 +7267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7268,7 +7279,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
@@ -7289,7 +7300,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
@@ -7311,7 +7322,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>66</v>
       </c>
@@ -7331,7 +7342,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>176</v>
       </c>
@@ -7357,7 +7368,7 @@
       </c>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>69</v>
       </c>
@@ -7380,7 +7391,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>71</v>
       </c>
@@ -7401,7 +7412,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
@@ -7423,7 +7434,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
@@ -7445,7 +7456,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>124</v>
       </c>
@@ -7465,7 +7476,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>74</v>
       </c>
@@ -7482,7 +7493,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>75</v>
       </c>
@@ -7501,7 +7512,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
@@ -7520,7 +7531,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
@@ -7545,7 +7556,7 @@
         <v>218.90000000000009</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7554,7 +7565,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>78</v>
       </c>
@@ -7573,7 +7584,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>80</v>
       </c>
@@ -7592,7 +7603,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>81</v>
       </c>
@@ -7622,7 +7633,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>83</v>
       </c>
@@ -7652,7 +7663,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>85</v>
       </c>
@@ -7678,7 +7689,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7705,20 +7716,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>89</v>
       </c>
@@ -7735,7 +7746,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>90</v>
       </c>
@@ -7745,18 +7756,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.2342891182548992</v>
+        <v>2.2342690087310872</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>286.21243604845341</v>
+        <v>286.20986001845307</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7765,7 +7776,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>164</v>
       </c>
@@ -7776,7 +7787,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>91</v>
       </c>
@@ -7791,7 +7802,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>92</v>
       </c>
@@ -7806,7 +7817,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>94</v>
       </c>
@@ -7820,7 +7831,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7829,7 +7840,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>167</v>
       </c>
@@ -7843,7 +7854,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>96</v>
       </c>
@@ -7864,7 +7875,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>153</v>
       </c>
@@ -7885,7 +7896,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>155</v>
       </c>
@@ -7906,7 +7917,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="146" t="s">
         <v>165</v>
       </c>
@@ -7921,7 +7932,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>156</v>
       </c>
@@ -7942,7 +7953,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -7952,7 +7963,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>168</v>
       </c>
@@ -7966,7 +7977,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>154</v>
       </c>
@@ -7987,7 +7998,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="146" t="s">
         <v>166</v>
       </c>
@@ -8002,7 +8013,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>157</v>
       </c>
@@ -8023,7 +8034,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>138</v>
@@ -8037,7 +8048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
@@ -8051,7 +8062,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>137</v>
       </c>
@@ -8066,7 +8077,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>110</v>
       </c>
@@ -8087,7 +8098,7 @@
         <v>0.40723441233977836</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>97</v>
       </c>
@@ -8102,7 +8113,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>134</v>
       </c>
@@ -8123,7 +8134,7 @@
         <v>0.41258418422767756</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>98</v>
       </c>
@@ -8138,7 +8149,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>130</v>
       </c>
@@ -8159,7 +8170,7 @@
         <v>4.6980230284597004E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>136</v>
       </c>
@@ -8179,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>114</v>
       </c>
@@ -8203,7 +8214,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>193</v>
       </c>
@@ -8224,7 +8235,7 @@
         <v>9.0430154247230065E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>135</v>
       </c>
@@ -8245,7 +8256,7 @@
         <v>0.12415815772322404</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>99</v>
       </c>
@@ -8256,7 +8267,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>182</v>
       </c>
@@ -8277,7 +8288,7 @@
         <v>9.3118618292418021E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>177</v>
       </c>
@@ -8292,7 +8303,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>178</v>
       </c>
@@ -8311,11 +8322,11 @@
         <v>0.437513987102362</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>170</v>
@@ -8325,7 +8336,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>171</v>
       </c>
@@ -8335,7 +8346,7 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>197</v>
       </c>
@@ -8352,7 +8363,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8370,7 +8381,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8381,45 +8392,45 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>44406.998748779319</v>
+        <v>44407.398433685325</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>30.369619887782065</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>30.369893229350115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>158</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>258.74944152832029</v>
+        <v>258.75177040100095</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>0.1769568402910135</v>
+        <v>0.17695843298991393</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>159</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-14810.180872294108</v>
+        <v>-14810.314171231588</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-10.128573788680921</v>
+        <v>-10.128664950844021</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>144</v>
@@ -8428,28 +8439,28 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>29338.068434956891</v>
+        <v>29338.332492052734</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>20.064089258810132</v>
+        <v>20.064269845516176</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>15.0480669441076</v>
+        <v>15.048202384137131</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>25.080111573512664</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>25.08033730689522</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>180</v>
       </c>
@@ -8464,28 +8475,28 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>19428.683077828038</v>
+        <v>19428.857945564851</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>13.287133483886718</v>
+        <v>13.287253074645996</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>9.9653501129150381</v>
+        <v>9.9654398059844969</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>16.608916854858396</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16.609066343307497</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>183</v>
       </c>

--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5329D0CD-6846-C747-BE47-A7E9AEEA5F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA4C10F9-86E4-8740-BD76-7BE4C38AF1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="2200" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2151,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>19.079999923706055</v>
+        <v>18.120000839233398</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>27899.115493361634</v>
+        <v>26495.38774502201</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
@@ -2234,7 +2234,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>7.7703234354654951</v>
+        <v>7.7718065579732256</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2283,7 +2283,7 @@
         <v>0.08</v>
       </c>
       <c r="D12" s="170">
-        <v>9.6250000000000002E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F12" s="125"/>
     </row>
@@ -2293,7 +2293,7 @@
         <v>201</v>
       </c>
       <c r="C14" s="170">
-        <v>2.0799999999999999E-2</v>
+        <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="125" t="s">
         <v>207</v>
@@ -2329,7 +2329,7 @@
         <v>206</v>
       </c>
       <c r="C17" s="194">
-        <v>0.1125</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="D17" s="189"/>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>2.2342690087310872</v>
+        <v>2.1214481436904151</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>9.550280927920822E-2</v>
+        <v>0.10058175009081401</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.1783814867222845E-2</v>
+        <v>4.4005922511965403E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2482,16 +2482,16 @@
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>15.048202384137131</v>
+        <v>15.051074636218036</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>25.08033730689522</v>
+        <v>25.085124393696727</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>20.064269845516176</v>
+        <v>20.068099514957382</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -6767,11 +6767,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>-2192.2198600184529</v>
+        <v>-2177.7675072067432</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>2.3641691723823599</v>
+        <v>2.3551757978884522</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -7756,11 +7756,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.2342690087310872</v>
+        <v>2.1214481436904151</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>286.20986001845307</v>
+        <v>271.75750720674296</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
@@ -8398,11 +8398,11 @@
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>44407.398433685325</v>
+        <v>44415.874478817008</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>30.369893229350115</v>
+        <v>30.375689934285234</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8411,11 +8411,11 @@
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>258.75177040100095</v>
+        <v>258.80115838050841</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>0.17695843298991393</v>
+        <v>0.17699220906591387</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
@@ -8426,11 +8426,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-14810.314171231588</v>
+        <v>-14813.141017562548</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-10.128664950844021</v>
+        <v>-10.130598210261937</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>144</v>
@@ -8445,19 +8445,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>29338.332492052734</v>
+        <v>29343.932302873953</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>20.064269845516176</v>
+        <v>20.068099514957382</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>15.048202384137131</v>
+        <v>15.051074636218036</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>25.08033730689522</v>
+        <v>25.085124393696727</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8481,19 +8481,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>19428.857945564851</v>
+        <v>19432.566333865274</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>13.287253074645996</v>
+        <v>13.289789214134215</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>9.9654398059844969</v>
+        <v>9.9673419106006609</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>16.609066343307497</v>
+        <v>16.612236517667768</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA4C10F9-86E4-8740-BD76-7BE4C38AF1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95A53E08-561E-407B-AEFA-EE0104044DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -816,16 +805,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1280,7 +1269,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1336,8 +1325,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1360,14 +1349,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1392,7 +1381,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1409,7 +1398,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1417,7 +1406,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1464,7 +1453,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1538,7 +1527,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1617,10 +1606,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1631,16 +1620,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1704,7 +1693,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1713,10 +1702,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1731,7 +1720,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1745,7 +1734,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1753,13 +1742,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1769,9 +1758,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2102,19 +2091,19 @@
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2123,7 +2112,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2138,7 +2127,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>227</v>
       </c>
@@ -2151,13 +2140,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>18.120000839233398</v>
+        <v>17.979999542236328</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>228</v>
       </c>
@@ -2175,7 +2164,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>181</v>
       </c>
@@ -2189,13 +2178,13 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>26495.38774502201</v>
+        <v>26290.67535666981</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2219,7 +2208,7 @@
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>224</v>
       </c>
@@ -2234,15 +2223,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>7.7718065579732256</v>
+        <v>7.7733167012532549</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>USD/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="180" t="s">
         <v>222</v>
       </c>
@@ -2250,7 +2239,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>200</v>
       </c>
@@ -2261,7 +2250,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="147" t="s">
         <v>204</v>
       </c>
@@ -2275,7 +2264,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>143</v>
       </c>
@@ -2287,8 +2276,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>201</v>
       </c>
@@ -2299,7 +2288,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>213</v>
       </c>
@@ -2310,7 +2299,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="147" t="s">
         <v>214</v>
       </c>
@@ -2324,7 +2313,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>206</v>
       </c>
@@ -2333,8 +2322,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="185" t="s">
         <v>210</v>
       </c>
@@ -2349,7 +2338,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="177" t="s">
         <v>188</v>
       </c>
@@ -2365,7 +2354,7 @@
         <v>0.1033080260303688</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="177" t="s">
         <v>189</v>
       </c>
@@ -2381,7 +2370,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="177" t="s">
         <v>190</v>
       </c>
@@ -2393,7 +2382,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="177" t="s">
         <v>191</v>
       </c>
@@ -2406,10 +2395,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>2.1214481436904151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.1046481577584495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="177" t="s">
         <v>192</v>
       </c>
@@ -2422,10 +2411,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>0.10058175009081401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.10138462632469142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="177" t="s">
         <v>223</v>
       </c>
@@ -2441,7 +2430,7 @@
         <v>0.437513987102362</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="179" t="s">
         <v>194</v>
       </c>
@@ -2454,11 +2443,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.4005922511965403E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4.435719209419884E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2476,919 +2465,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>187</v>
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>15.051074636218036</v>
+        <v>15.053999217401262</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>25.085124393696727</v>
+        <v>25.089998695668768</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>20.068099514957382</v>
+        <v>20.071998956535015</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3452,7 +3441,7 @@
       <selection pane="topRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3460,7 +3449,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3468,7 +3457,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3485,7 +3474,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3511,13 +3500,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>147</v>
@@ -3567,7 +3556,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3589,7 +3578,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3640,7 +3629,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>110</v>
@@ -3662,7 +3651,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>106</v>
@@ -3713,7 +3702,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>108</v>
@@ -3735,7 +3724,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>101</v>
@@ -3786,7 +3775,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>109</v>
@@ -3804,7 +3793,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>107</v>
@@ -3855,7 +3844,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>111</v>
@@ -3873,7 +3862,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>112</v>
@@ -3891,7 +3880,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>114</v>
@@ -3909,7 +3898,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>130</v>
@@ -3931,7 +3920,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>115</v>
@@ -3953,7 +3942,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>116</v>
@@ -4004,7 +3993,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>117</v>
@@ -4055,7 +4044,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>118</v>
@@ -4106,7 +4095,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>119</v>
@@ -4157,7 +4146,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>139</v>
@@ -4208,7 +4197,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>148</v>
@@ -4259,7 +4248,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4310,7 +4299,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4331,7 +4320,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>122</v>
@@ -4352,7 +4341,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>162</v>
@@ -4373,7 +4362,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4394,7 +4383,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>121</v>
@@ -4415,7 +4404,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4436,7 +4425,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4457,7 +4446,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4508,7 +4497,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>151</v>
@@ -4529,7 +4518,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>152</v>
@@ -4550,7 +4539,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>150</v>
@@ -4571,7 +4560,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>154</v>
@@ -4622,7 +4611,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>174</v>
@@ -4673,7 +4662,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>133</v>
@@ -4691,7 +4680,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>100</v>
@@ -4742,7 +4731,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>127</v>
@@ -4793,7 +4782,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>102</v>
@@ -4844,7 +4833,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>113</v>
@@ -4895,7 +4884,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>128</v>
@@ -4946,7 +4935,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>140</v>
@@ -4997,7 +4986,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>131</v>
@@ -5048,7 +5037,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>163</v>
@@ -5066,7 +5055,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>160</v>
@@ -5117,7 +5106,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>161</v>
@@ -5168,7 +5157,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>132</v>
@@ -5185,7 +5174,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5235,7 +5224,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>126</v>
@@ -5285,7 +5274,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>129</v>
@@ -5335,7 +5324,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5385,1260 +5374,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6677,7 +6666,7 @@
       <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6686,11 +6675,11 @@
     <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6706,7 +6695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6729,7 +6718,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6745,7 +6734,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6760,18 +6749,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>-2177.7675072067432</v>
+        <v>-2175.615429008858</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>2.3551757978884522</v>
+        <v>2.3538366079706643</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6785,7 +6774,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6808,13 +6797,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6833,7 +6822,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6858,7 +6847,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
@@ -6884,7 +6873,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>149</v>
       </c>
@@ -6907,7 +6896,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>122</v>
       </c>
@@ -6930,7 +6919,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
@@ -6951,7 +6940,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
@@ -6974,7 +6963,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>175</v>
       </c>
@@ -6992,7 +6981,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>123</v>
       </c>
@@ -7012,7 +7001,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
@@ -7031,7 +7020,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
@@ -7051,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>125</v>
       </c>
@@ -7073,7 +7062,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>51</v>
       </c>
@@ -7090,7 +7079,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>52</v>
       </c>
@@ -7112,7 +7101,7 @@
         <v>961.60000000000014</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7121,7 +7110,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>54</v>
       </c>
@@ -7143,7 +7132,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>56</v>
       </c>
@@ -7172,7 +7161,7 @@
         <v>1.2036682480515077</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>58</v>
       </c>
@@ -7205,7 +7194,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>60</v>
       </c>
@@ -7238,7 +7227,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7267,7 +7256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7279,7 +7268,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
@@ -7300,7 +7289,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
@@ -7322,7 +7311,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>66</v>
       </c>
@@ -7342,7 +7331,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>176</v>
       </c>
@@ -7368,7 +7357,7 @@
       </c>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>69</v>
       </c>
@@ -7391,7 +7380,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>71</v>
       </c>
@@ -7412,7 +7401,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
@@ -7434,7 +7423,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
@@ -7456,7 +7445,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>124</v>
       </c>
@@ -7476,7 +7465,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>74</v>
       </c>
@@ -7493,7 +7482,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>75</v>
       </c>
@@ -7512,7 +7501,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
@@ -7531,7 +7520,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
@@ -7556,7 +7545,7 @@
         <v>218.90000000000009</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7565,7 +7554,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>78</v>
       </c>
@@ -7584,7 +7573,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>80</v>
       </c>
@@ -7603,7 +7592,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>81</v>
       </c>
@@ -7633,7 +7622,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>83</v>
       </c>
@@ -7663,7 +7652,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>85</v>
       </c>
@@ -7689,7 +7678,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7716,20 +7705,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>89</v>
       </c>
@@ -7746,7 +7735,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>90</v>
       </c>
@@ -7756,18 +7745,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.1214481436904151</v>
+        <v>2.1046481577584495</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>271.75750720674296</v>
+        <v>269.60542900885815</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7776,7 +7765,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>164</v>
       </c>
@@ -7787,7 +7776,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>91</v>
       </c>
@@ -7802,7 +7791,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>92</v>
       </c>
@@ -7817,7 +7806,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>94</v>
       </c>
@@ -7831,7 +7820,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7840,7 +7829,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>167</v>
       </c>
@@ -7854,7 +7843,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>96</v>
       </c>
@@ -7875,7 +7864,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>153</v>
       </c>
@@ -7896,7 +7885,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>155</v>
       </c>
@@ -7917,7 +7906,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="146" t="s">
         <v>165</v>
       </c>
@@ -7932,7 +7921,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>156</v>
       </c>
@@ -7953,7 +7942,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -7963,7 +7952,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>168</v>
       </c>
@@ -7977,7 +7966,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>154</v>
       </c>
@@ -7998,7 +7987,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="146" t="s">
         <v>166</v>
       </c>
@@ -8013,7 +8002,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>157</v>
       </c>
@@ -8034,7 +8023,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>138</v>
@@ -8048,7 +8037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
@@ -8062,7 +8051,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>137</v>
       </c>
@@ -8077,7 +8066,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>110</v>
       </c>
@@ -8098,7 +8087,7 @@
         <v>0.40723441233977836</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>97</v>
       </c>
@@ -8113,7 +8102,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>134</v>
       </c>
@@ -8134,7 +8123,7 @@
         <v>0.41258418422767756</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>98</v>
       </c>
@@ -8149,7 +8138,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>130</v>
       </c>
@@ -8170,7 +8159,7 @@
         <v>4.6980230284597004E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>136</v>
       </c>
@@ -8190,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>114</v>
       </c>
@@ -8214,7 +8203,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>193</v>
       </c>
@@ -8235,7 +8224,7 @@
         <v>9.0430154247230065E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>135</v>
       </c>
@@ -8256,7 +8245,7 @@
         <v>0.12415815772322404</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>99</v>
       </c>
@@ -8267,7 +8256,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>182</v>
       </c>
@@ -8288,7 +8277,7 @@
         <v>9.3118618292418021E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>177</v>
       </c>
@@ -8303,7 +8292,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>178</v>
       </c>
@@ -8322,11 +8311,11 @@
         <v>0.437513987102362</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>170</v>
@@ -8336,7 +8325,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>171</v>
       </c>
@@ -8346,7 +8335,7 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>197</v>
       </c>
@@ -8363,7 +8352,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8381,7 +8370,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8392,45 +8381,45 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>44415.874478817008</v>
+        <v>44424.504947662375</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>30.375689934285234</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30.381592248462553</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>158</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>258.80115838050841</v>
+        <v>258.85144615173334</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>0.17699220906591387</v>
+        <v>0.17702660050285254</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>159</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-14813.141017562548</v>
+        <v>-14816.019365755716</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-10.130598210261937</v>
+        <v>-10.132566691424685</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>144</v>
@@ -8439,28 +8428,28 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>29343.932302873953</v>
+        <v>29349.634135754925</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>20.068099514957382</v>
+        <v>20.071998956535015</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>15.051074636218036</v>
+        <v>15.053999217401262</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>25.085124393696727</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25.089998695668768</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>180</v>
       </c>
@@ -8475,28 +8464,28 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>19432.566333865274</v>
+        <v>19436.342284700371</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>13.289789214134215</v>
+        <v>13.292371559143065</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>9.9673419106006609</v>
+        <v>9.9692786693572994</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>16.612236517667768</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16.615464448928833</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>183</v>
       </c>

--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95A53E08-561E-407B-AEFA-EE0104044DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30CF88B0-CB1F-4D4F-A8DE-91B9E4192175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="740" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -805,16 +816,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1269,7 +1280,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1325,8 +1336,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1349,14 +1360,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1381,7 +1392,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1398,7 +1409,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1406,7 +1417,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1453,7 +1464,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1527,7 +1538,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1606,10 +1617,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1620,16 +1631,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1693,7 +1704,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1702,10 +1713,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1720,7 +1731,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1734,7 +1745,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1742,13 +1753,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1758,9 +1769,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2091,19 +2102,19 @@
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2112,7 +2123,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2127,7 +2138,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>227</v>
       </c>
@@ -2140,13 +2151,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>17.979999542236328</v>
+        <v>18.020000457763672</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>228</v>
       </c>
@@ -2164,7 +2175,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>181</v>
       </c>
@@ -2178,13 +2189,13 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>26290.67535666981</v>
+        <v>26349.165407330187</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2208,7 +2219,7 @@
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>224</v>
       </c>
@@ -2223,15 +2234,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>7.7733167012532549</v>
+        <v>7.7742500305175781</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>USD/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="180" t="s">
         <v>222</v>
       </c>
@@ -2239,7 +2250,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>200</v>
       </c>
@@ -2250,7 +2261,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="147" t="s">
         <v>204</v>
       </c>
@@ -2264,7 +2275,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>143</v>
       </c>
@@ -2276,8 +2287,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>201</v>
       </c>
@@ -2288,7 +2299,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>213</v>
       </c>
@@ -2299,7 +2310,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="147" t="s">
         <v>214</v>
       </c>
@@ -2313,7 +2324,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>206</v>
       </c>
@@ -2322,8 +2333,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="185" t="s">
         <v>210</v>
       </c>
@@ -2338,7 +2349,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="177" t="s">
         <v>188</v>
       </c>
@@ -2354,7 +2365,7 @@
         <v>0.1033080260303688</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="177" t="s">
         <v>189</v>
       </c>
@@ -2370,7 +2381,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="177" t="s">
         <v>190</v>
       </c>
@@ -2382,7 +2393,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="177" t="s">
         <v>191</v>
       </c>
@@ -2395,10 +2406,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>2.1046481577584495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.1090772299828751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="177" t="s">
         <v>192</v>
       </c>
@@ -2411,10 +2422,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>0.10138462632469142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.10117171812671041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="177" t="s">
         <v>223</v>
       </c>
@@ -2430,7 +2441,7 @@
         <v>0.437513987102362</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="179" t="s">
         <v>194</v>
       </c>
@@ -2443,11 +2454,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.435719209419884E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>4.4264041779613385E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2465,919 +2476,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>187</v>
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>15.053999217401262</v>
+        <v>15.055806726159068</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>25.089998695668768</v>
+        <v>25.093011210265111</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>20.071998956535015</v>
+        <v>20.07440896821209</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3441,7 +3452,7 @@
       <selection pane="topRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3449,7 +3460,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3457,7 +3468,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3474,7 +3485,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3500,13 +3511,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>147</v>
@@ -3556,7 +3567,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3578,7 +3589,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3629,7 +3640,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>110</v>
@@ -3651,7 +3662,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>106</v>
@@ -3702,7 +3713,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>108</v>
@@ -3724,7 +3735,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>101</v>
@@ -3775,7 +3786,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>109</v>
@@ -3793,7 +3804,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>107</v>
@@ -3844,7 +3855,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>111</v>
@@ -3862,7 +3873,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>112</v>
@@ -3880,7 +3891,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>114</v>
@@ -3898,7 +3909,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>130</v>
@@ -3920,7 +3931,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>115</v>
@@ -3942,7 +3953,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>116</v>
@@ -3993,7 +4004,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>117</v>
@@ -4044,7 +4055,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>118</v>
@@ -4095,7 +4106,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>119</v>
@@ -4146,7 +4157,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>139</v>
@@ -4197,7 +4208,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>148</v>
@@ -4248,7 +4259,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4299,7 +4310,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4320,7 +4331,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>122</v>
@@ -4341,7 +4352,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>162</v>
@@ -4362,7 +4373,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4383,7 +4394,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>121</v>
@@ -4404,7 +4415,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4425,7 +4436,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4446,7 +4457,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4497,7 +4508,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>151</v>
@@ -4518,7 +4529,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>152</v>
@@ -4539,7 +4550,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>150</v>
@@ -4560,7 +4571,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>154</v>
@@ -4611,7 +4622,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>174</v>
@@ -4662,7 +4673,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>133</v>
@@ -4680,7 +4691,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>100</v>
@@ -4731,7 +4742,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>127</v>
@@ -4782,7 +4793,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>102</v>
@@ -4833,7 +4844,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>113</v>
@@ -4884,7 +4895,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>128</v>
@@ -4935,7 +4946,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>140</v>
@@ -4986,7 +4997,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>131</v>
@@ -5037,7 +5048,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>163</v>
@@ -5055,7 +5066,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>160</v>
@@ -5106,7 +5117,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>161</v>
@@ -5157,7 +5168,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>132</v>
@@ -5174,7 +5185,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5224,7 +5235,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>126</v>
@@ -5274,7 +5285,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>129</v>
@@ -5324,7 +5335,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5374,1260 +5385,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6666,7 +6677,7 @@
       <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6675,11 +6686,11 @@
     <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6695,7 +6706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6718,7 +6729,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6734,7 +6745,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6749,18 +6760,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>-2175.615429008858</v>
+        <v>-2176.1827931608073</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>2.3538366079706643</v>
+        <v>2.3541896659370298</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6774,7 +6785,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6797,13 +6808,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6822,7 +6833,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6847,7 +6858,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
@@ -6873,7 +6884,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>149</v>
       </c>
@@ -6896,7 +6907,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>122</v>
       </c>
@@ -6919,7 +6930,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
@@ -6940,7 +6951,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
@@ -6963,7 +6974,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>175</v>
       </c>
@@ -6981,7 +6992,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>123</v>
       </c>
@@ -7001,7 +7012,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
@@ -7020,7 +7031,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
@@ -7040,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>125</v>
       </c>
@@ -7062,7 +7073,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>51</v>
       </c>
@@ -7079,7 +7090,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>52</v>
       </c>
@@ -7101,7 +7112,7 @@
         <v>961.60000000000014</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7110,7 +7121,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>54</v>
       </c>
@@ -7132,7 +7143,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>56</v>
       </c>
@@ -7161,7 +7172,7 @@
         <v>1.2036682480515077</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>58</v>
       </c>
@@ -7194,7 +7205,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>60</v>
       </c>
@@ -7227,7 +7238,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7256,7 +7267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7268,7 +7279,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
@@ -7289,7 +7300,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
@@ -7311,7 +7322,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>66</v>
       </c>
@@ -7331,7 +7342,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>176</v>
       </c>
@@ -7357,7 +7368,7 @@
       </c>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>69</v>
       </c>
@@ -7380,7 +7391,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>71</v>
       </c>
@@ -7401,7 +7412,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
@@ -7423,7 +7434,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
@@ -7445,7 +7456,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>124</v>
       </c>
@@ -7465,7 +7476,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>74</v>
       </c>
@@ -7482,7 +7493,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>75</v>
       </c>
@@ -7501,7 +7512,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
@@ -7520,7 +7531,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
@@ -7545,7 +7556,7 @@
         <v>218.90000000000009</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7554,7 +7565,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>78</v>
       </c>
@@ -7573,7 +7584,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>80</v>
       </c>
@@ -7592,7 +7603,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>81</v>
       </c>
@@ -7622,7 +7633,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>83</v>
       </c>
@@ -7652,7 +7663,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>85</v>
       </c>
@@ -7678,7 +7689,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7705,20 +7716,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>89</v>
       </c>
@@ -7735,7 +7746,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>90</v>
       </c>
@@ -7745,18 +7756,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.1046481577584495</v>
+        <v>2.1090772299828751</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>269.60542900885815</v>
+        <v>270.17279316080709</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7765,7 +7776,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>164</v>
       </c>
@@ -7776,7 +7787,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>91</v>
       </c>
@@ -7791,7 +7802,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>92</v>
       </c>
@@ -7806,7 +7817,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>94</v>
       </c>
@@ -7820,7 +7831,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7829,7 +7840,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>167</v>
       </c>
@@ -7843,7 +7854,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>96</v>
       </c>
@@ -7864,7 +7875,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>153</v>
       </c>
@@ -7885,7 +7896,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>155</v>
       </c>
@@ -7906,7 +7917,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="146" t="s">
         <v>165</v>
       </c>
@@ -7921,7 +7932,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>156</v>
       </c>
@@ -7942,7 +7953,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -7952,7 +7963,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>168</v>
       </c>
@@ -7966,7 +7977,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>154</v>
       </c>
@@ -7987,7 +7998,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="146" t="s">
         <v>166</v>
       </c>
@@ -8002,7 +8013,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>157</v>
       </c>
@@ -8023,7 +8034,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>138</v>
@@ -8037,7 +8048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
@@ -8051,7 +8062,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>137</v>
       </c>
@@ -8066,7 +8077,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>110</v>
       </c>
@@ -8087,7 +8098,7 @@
         <v>0.40723441233977836</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>97</v>
       </c>
@@ -8102,7 +8113,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>134</v>
       </c>
@@ -8123,7 +8134,7 @@
         <v>0.41258418422767756</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>98</v>
       </c>
@@ -8138,7 +8149,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>130</v>
       </c>
@@ -8159,7 +8170,7 @@
         <v>4.6980230284597004E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>136</v>
       </c>
@@ -8179,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>114</v>
       </c>
@@ -8203,7 +8214,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>193</v>
       </c>
@@ -8224,7 +8235,7 @@
         <v>9.0430154247230065E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>135</v>
       </c>
@@ -8245,7 +8256,7 @@
         <v>0.12415815772322404</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>99</v>
       </c>
@@ -8256,7 +8267,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>182</v>
       </c>
@@ -8277,7 +8288,7 @@
         <v>9.3118618292418021E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>177</v>
       </c>
@@ -8292,7 +8303,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>178</v>
       </c>
@@ -8311,11 +8322,11 @@
         <v>0.437513987102362</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>170</v>
@@ -8325,7 +8336,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>171</v>
       </c>
@@ -8335,7 +8346,7 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>197</v>
       </c>
@@ -8352,7 +8363,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8370,7 +8381,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8381,45 +8392,45 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>44424.504947662375</v>
+        <v>44429.838924407981</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>30.381592248462553</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>30.385240115934316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>158</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>258.85144615173334</v>
+        <v>258.88252601623532</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>0.17702660050285254</v>
+        <v>0.17704785579363291</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>159</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-14816.019365755716</v>
+        <v>-14817.798300666809</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-10.132566691424685</v>
+        <v>-10.133783291928598</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>144</v>
@@ -8428,28 +8439,28 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>29349.634135754925</v>
+        <v>29353.15809772494</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>20.071998956535015</v>
+        <v>20.07440896821209</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>15.053999217401262</v>
+        <v>15.055806726159068</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>25.089998695668768</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>25.093011210265111</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>180</v>
       </c>
@@ -8464,28 +8475,28 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>19436.342284700371</v>
+        <v>19438.675974133454</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>13.292371559143065</v>
+        <v>13.293967552185059</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>9.9692786693572994</v>
+        <v>9.9704756641387942</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>16.615464448928833</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16.617459440231322</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>183</v>
       </c>

--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30CF88B0-CB1F-4D4F-A8DE-91B9E4192175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA587E0B-E590-4CFC-9CA2-2184C366E426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="740" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -816,16 +805,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1280,7 +1269,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1336,8 +1325,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1360,14 +1349,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1392,7 +1381,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1409,7 +1398,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1417,7 +1406,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1464,7 +1453,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1538,7 +1527,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1617,10 +1606,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1631,16 +1620,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1704,7 +1693,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1713,10 +1702,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1731,7 +1720,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1745,7 +1734,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1753,13 +1742,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1769,9 +1758,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2102,19 +2091,19 @@
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2123,7 +2112,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2138,7 +2127,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>227</v>
       </c>
@@ -2157,7 +2146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>228</v>
       </c>
@@ -2175,7 +2164,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>181</v>
       </c>
@@ -2195,7 +2184,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2219,7 +2208,7 @@
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>224</v>
       </c>
@@ -2234,15 +2223,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>7.7742500305175781</v>
+        <v>7.7738432884216309</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>USD/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="180" t="s">
         <v>222</v>
       </c>
@@ -2250,7 +2239,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>200</v>
       </c>
@@ -2261,7 +2250,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="147" t="s">
         <v>204</v>
       </c>
@@ -2275,7 +2264,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>143</v>
       </c>
@@ -2287,8 +2276,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>201</v>
       </c>
@@ -2299,7 +2288,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>213</v>
       </c>
@@ -2310,7 +2299,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="147" t="s">
         <v>214</v>
       </c>
@@ -2324,7 +2313,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>206</v>
       </c>
@@ -2333,8 +2322,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="185" t="s">
         <v>210</v>
       </c>
@@ -2349,7 +2338,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="177" t="s">
         <v>188</v>
       </c>
@@ -2365,7 +2354,7 @@
         <v>0.1033080260303688</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="177" t="s">
         <v>189</v>
       </c>
@@ -2381,7 +2370,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="177" t="s">
         <v>190</v>
       </c>
@@ -2393,7 +2382,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="177" t="s">
         <v>191</v>
       </c>
@@ -2406,10 +2395,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>2.1090772299828751</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.1091875808686864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="177" t="s">
         <v>192</v>
       </c>
@@ -2422,10 +2411,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>0.10117171812671041</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.10116642490916275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="177" t="s">
         <v>223</v>
       </c>
@@ -2441,7 +2430,7 @@
         <v>0.437513987102362</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="179" t="s">
         <v>194</v>
       </c>
@@ -2454,11 +2443,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.4264041779613385E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4.4261725922899509E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2476,919 +2465,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>187</v>
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>15.055806726159068</v>
+        <v>15.055019019260016</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>25.093011210265111</v>
+        <v>25.091698365433359</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>20.07440896821209</v>
+        <v>20.073358692346687</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3452,7 +3441,7 @@
       <selection pane="topRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3460,7 +3449,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3468,7 +3457,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3485,7 +3474,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3511,13 +3500,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>147</v>
@@ -3567,7 +3556,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3589,7 +3578,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3640,7 +3629,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>110</v>
@@ -3662,7 +3651,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>106</v>
@@ -3713,7 +3702,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>108</v>
@@ -3735,7 +3724,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>101</v>
@@ -3786,7 +3775,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>109</v>
@@ -3804,7 +3793,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>107</v>
@@ -3855,7 +3844,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>111</v>
@@ -3873,7 +3862,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>112</v>
@@ -3891,7 +3880,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>114</v>
@@ -3909,7 +3898,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>130</v>
@@ -3931,7 +3920,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>115</v>
@@ -3953,7 +3942,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>116</v>
@@ -4004,7 +3993,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>117</v>
@@ -4055,7 +4044,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>118</v>
@@ -4106,7 +4095,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>119</v>
@@ -4157,7 +4146,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>139</v>
@@ -4208,7 +4197,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>148</v>
@@ -4259,7 +4248,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4310,7 +4299,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4331,7 +4320,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>122</v>
@@ -4352,7 +4341,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>162</v>
@@ -4373,7 +4362,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4394,7 +4383,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>121</v>
@@ -4415,7 +4404,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4436,7 +4425,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4457,7 +4446,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4508,7 +4497,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>151</v>
@@ -4529,7 +4518,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>152</v>
@@ -4550,7 +4539,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>150</v>
@@ -4571,7 +4560,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>154</v>
@@ -4622,7 +4611,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>174</v>
@@ -4673,7 +4662,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>133</v>
@@ -4691,7 +4680,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>100</v>
@@ -4742,7 +4731,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>127</v>
@@ -4793,7 +4782,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>102</v>
@@ -4844,7 +4833,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>113</v>
@@ -4895,7 +4884,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>128</v>
@@ -4946,7 +4935,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>140</v>
@@ -4997,7 +4986,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>131</v>
@@ -5048,7 +5037,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>163</v>
@@ -5066,7 +5055,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>160</v>
@@ -5117,7 +5106,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>161</v>
@@ -5168,7 +5157,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>132</v>
@@ -5185,7 +5174,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5235,7 +5224,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>126</v>
@@ -5285,7 +5274,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>129</v>
@@ -5335,7 +5324,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5385,1260 +5374,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6677,7 +6666,7 @@
       <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6686,11 +6675,11 @@
     <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6706,7 +6695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6729,7 +6718,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6745,7 +6734,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6760,18 +6749,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>-2176.1827931608073</v>
+        <v>-2176.1969291092796</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>2.3541896659370298</v>
+        <v>2.3541984624202108</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6785,7 +6774,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6808,13 +6797,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6833,7 +6822,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6858,7 +6847,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
@@ -6884,7 +6873,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>149</v>
       </c>
@@ -6907,7 +6896,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>122</v>
       </c>
@@ -6930,7 +6919,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
@@ -6951,7 +6940,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
@@ -6974,7 +6963,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>175</v>
       </c>
@@ -6992,7 +6981,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>123</v>
       </c>
@@ -7012,7 +7001,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
@@ -7031,7 +7020,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
@@ -7051,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>125</v>
       </c>
@@ -7073,7 +7062,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>51</v>
       </c>
@@ -7090,7 +7079,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>52</v>
       </c>
@@ -7112,7 +7101,7 @@
         <v>961.60000000000014</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7121,7 +7110,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>54</v>
       </c>
@@ -7143,7 +7132,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>56</v>
       </c>
@@ -7172,7 +7161,7 @@
         <v>1.2036682480515077</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>58</v>
       </c>
@@ -7205,7 +7194,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>60</v>
       </c>
@@ -7238,7 +7227,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7267,7 +7256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7279,7 +7268,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
@@ -7300,7 +7289,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
@@ -7322,7 +7311,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>66</v>
       </c>
@@ -7342,7 +7331,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>176</v>
       </c>
@@ -7368,7 +7357,7 @@
       </c>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>69</v>
       </c>
@@ -7391,7 +7380,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>71</v>
       </c>
@@ -7412,7 +7401,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
@@ -7434,7 +7423,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
@@ -7456,7 +7445,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>124</v>
       </c>
@@ -7476,7 +7465,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>74</v>
       </c>
@@ -7493,7 +7482,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>75</v>
       </c>
@@ -7512,7 +7501,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
@@ -7531,7 +7520,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
@@ -7556,7 +7545,7 @@
         <v>218.90000000000009</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7565,7 +7554,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>78</v>
       </c>
@@ -7584,7 +7573,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>80</v>
       </c>
@@ -7603,7 +7592,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>81</v>
       </c>
@@ -7633,7 +7622,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>83</v>
       </c>
@@ -7663,7 +7652,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>85</v>
       </c>
@@ -7689,7 +7678,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7716,20 +7705,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>89</v>
       </c>
@@ -7746,7 +7735,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>90</v>
       </c>
@@ -7756,18 +7745,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.1090772299828751</v>
+        <v>2.1091875808686864</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>270.17279316080709</v>
+        <v>270.1869291092795</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7776,7 +7765,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>164</v>
       </c>
@@ -7787,7 +7776,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>91</v>
       </c>
@@ -7802,7 +7791,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>92</v>
       </c>
@@ -7817,7 +7806,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>94</v>
       </c>
@@ -7831,7 +7820,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7840,7 +7829,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>167</v>
       </c>
@@ -7854,7 +7843,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>96</v>
       </c>
@@ -7875,7 +7864,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>153</v>
       </c>
@@ -7896,7 +7885,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>155</v>
       </c>
@@ -7917,7 +7906,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="146" t="s">
         <v>165</v>
       </c>
@@ -7932,7 +7921,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>156</v>
       </c>
@@ -7953,7 +7942,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -7963,7 +7952,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>168</v>
       </c>
@@ -7977,7 +7966,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>154</v>
       </c>
@@ -7998,7 +7987,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="146" t="s">
         <v>166</v>
       </c>
@@ -8013,7 +8002,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>157</v>
       </c>
@@ -8034,7 +8023,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>138</v>
@@ -8048,7 +8037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
@@ -8062,7 +8051,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>137</v>
       </c>
@@ -8077,7 +8066,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>110</v>
       </c>
@@ -8098,7 +8087,7 @@
         <v>0.40723441233977836</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>97</v>
       </c>
@@ -8113,7 +8102,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>134</v>
       </c>
@@ -8134,7 +8123,7 @@
         <v>0.41258418422767756</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>98</v>
       </c>
@@ -8149,7 +8138,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>130</v>
       </c>
@@ -8170,7 +8159,7 @@
         <v>4.6980230284597004E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>136</v>
       </c>
@@ -8190,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>114</v>
       </c>
@@ -8214,7 +8203,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>193</v>
       </c>
@@ -8235,7 +8224,7 @@
         <v>9.0430154247230065E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>135</v>
       </c>
@@ -8256,7 +8245,7 @@
         <v>0.12415815772322404</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>99</v>
       </c>
@@ -8267,7 +8256,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>182</v>
       </c>
@@ -8288,7 +8277,7 @@
         <v>9.3118618292418021E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>177</v>
       </c>
@@ -8303,7 +8292,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>178</v>
       </c>
@@ -8322,11 +8311,11 @@
         <v>0.437513987102362</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>170</v>
@@ -8336,7 +8325,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>171</v>
       </c>
@@ -8346,7 +8335,7 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>197</v>
       </c>
@@ -8363,7 +8352,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8381,7 +8370,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8392,45 +8381,45 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>44429.838924407981</v>
+        <v>44427.514393329642</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>30.385240115934316</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30.383650386223785</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>158</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>258.88252601623532</v>
+        <v>258.86898150444028</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>0.17704785579363291</v>
+        <v>0.17703859280161879</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>159</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-14817.798300666809</v>
+        <v>-14817.023046164513</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-10.133783291928598</v>
+        <v>-10.13325310107548</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>144</v>
@@ -8439,28 +8428,28 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>29353.15809772494</v>
+        <v>29351.622365660689</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>20.07440896821209</v>
+        <v>20.073358692346687</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>15.055806726159068</v>
+        <v>15.055019019260016</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>25.093011210265111</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25.091698365433359</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>180</v>
       </c>
@@ -8475,28 +8464,28 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>19438.675974133454</v>
+        <v>19437.658959273223</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>13.293967552185059</v>
+        <v>13.293272023200988</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>9.9704756641387942</v>
+        <v>9.9699540174007417</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>16.617459440231322</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16.616590029001234</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>183</v>
       </c>

--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA587E0B-E590-4CFC-9CA2-2184C366E426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA901C3-3F8C-4D17-8B17-9C205AA4491B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>18.020000457763672</v>
+        <v>17.659999847412109</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>26349.165407330187</v>
+        <v>25822.76610722327</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
@@ -2223,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>7.7738432884216309</v>
+        <v>7.7741099993387861</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>2.1091875808686864</v>
+        <v>2.0669796621886825</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>0.10116642490916275</v>
+        <v>0.10323225279988871</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.4261725922899509E-2</v>
+        <v>4.516555452003828E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2471,16 +2471,16 @@
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>15.055019019260016</v>
+        <v>15.055535538281742</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>25.091698365433359</v>
+        <v>25.092559230469572</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>20.073358692346687</v>
+        <v>20.074047384375657</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -6756,11 +6756,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>-2176.1969291092796</v>
+        <v>-2170.7900947263711</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>2.3541984624202108</v>
+        <v>2.350833910844039</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -7745,11 +7745,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.1091875808686864</v>
+        <v>2.0669796621886825</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>270.1869291092795</v>
+        <v>264.78009472637098</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
@@ -8387,11 +8387,11 @@
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>44427.514393329642</v>
+        <v>44429.038646221183</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>30.383650386223785</v>
+        <v>30.384692811567387</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8400,11 +8400,11 @@
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>258.86898150444028</v>
+        <v>258.87786297798158</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>0.17703859280161879</v>
+        <v>0.17704466677606184</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
@@ -8415,11 +8415,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-14817.023046164513</v>
+        <v>-14817.53139983972</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-10.13325310107548</v>
+        <v>-10.133600760415664</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>144</v>
@@ -8434,19 +8434,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>29351.622365660689</v>
+        <v>29352.62938340348</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>20.073358692346687</v>
+        <v>20.074047384375657</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>15.055019019260016</v>
+        <v>15.055535538281742</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>25.091698365433359</v>
+        <v>25.092559230469572</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8470,19 +8470,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>19437.658959273223</v>
+        <v>19438.325841233156</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>13.293272023200988</v>
+        <v>13.293728098869323</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>9.9699540174007417</v>
+        <v>9.9702960741519924</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>16.616590029001234</v>
+        <v>16.617160123586654</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7860E310-FE30-4ADC-984F-394668ECE676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38CEBCC9-04D7-492A-9BEB-96F093F0F70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2358,8 +2358,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>17.659999847412099</v>
+        <v>17.959999084472656</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="G5" s="243">
         <f>G3*G4/1000000</f>
-        <v>25822.766107223255</v>
+        <v>26261.430331339623</v>
       </c>
       <c r="H5" s="243"/>
       <c r="I5" s="38"/>
@@ -2502,7 +2502,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>7.8</v>
+        <v>7.7768866221110029</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2551,7 +2551,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="178">
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="111"/>
     </row>
@@ -2597,7 +2597,7 @@
         <v>196</v>
       </c>
       <c r="C17" s="181">
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="182"/>
     </row>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.0601188795193504</v>
+        <v>2.1013419568451148</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.10357604560620036</v>
+        <v>0.10154414245820834</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.5315968681464813E-2</v>
+        <v>4.4426982633780969E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2747,21 +2747,21 @@
         <v>180</v>
       </c>
       <c r="C29" s="131">
-        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>16.419082613642104</v>
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
+        <v>8.2177513983271044</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.589496849401058</v>
+        <v>25.176186301943613</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>16.419082613642104</v>
+        <v>18.493330996261051</v>
       </c>
       <c r="G29" s="242">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>18.071597479520847</v>
+        <v>20.14094904155489</v>
       </c>
       <c r="H29" s="242"/>
     </row>
@@ -8634,8 +8634,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView showGridLines="0" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8728,11 +8728,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18167.340582038149</v>
+        <v>-18154.573365238586</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.305127929084097</v>
+        <v>12.297183176875285</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9819,11 +9819,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.0601188795193504</v>
+        <v>2.1013419568451148</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>263.90122846642953</v>
+        <v>269.18190467185997</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10492,17 +10492,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10357604560620036</v>
+        <v>0.10154414245820834</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10357604560620036</v>
+        <v>0.10154414245820834</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10357604560620036</v>
+        <v>0.10154414245820834</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10543,17 +10543,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5315968681464813E-2</v>
+        <v>4.4426982633780969E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5315968681464813E-2</v>
+        <v>4.4426982633780969E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5315968681464813E-2</v>
+        <v>4.4426982633780969E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="C93" s="137">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D93" s="206">
         <v>5</v>
@@ -10611,14 +10611,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>5.4836370774121486</v>
+        <v>5.7626336463104586</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>5.4836370774121486</v>
+        <v>5.7626336463104586</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10636,14 +10636,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>1.8293097339464159</v>
+        <v>1.9319409206241567</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>1.8293097339464159</v>
+        <v>1.9319409206241567</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10683,19 +10683,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>44591.952072957072</v>
+        <v>47605.027542552139</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>21.265426881725737</v>
+        <v>22.281148664510177</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>30.496108106092798</v>
+        <v>32.556728262444125</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>30.496108106092798</v>
+        <v>32.556728262444125</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10706,13 +10706,13 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2058.4295820381503</v>
+        <v>2093.397153356947</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4077448540469792</v>
+        <v>1.4316589189302755</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
@@ -10723,16 +10723,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-16108.910999999998</v>
+        <v>-16061.176211881637</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
-        <v>-12.669280638403716</v>
+        <v>-12.631738347252798</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-11.016765772524971</v>
+        <v>-10.984120301958955</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10743,23 +10743,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>26424.61149091892</v>
+        <v>29450.454177313553</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>7.1884013892750431</v>
+        <v>8.2177513983271044</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>16.419082613642104</v>
+        <v>18.493330996261051</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.071597479520847</v>
+        <v>20.14094904155489</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>22.589496849401058</v>
+        <v>25.176186301943613</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10797,23 +10797,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14875.618286035136</v>
+        <v>15959.734104523654</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>7.0940238827083268</v>
+        <v>7.4698246505810264</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>10.17332595473018</v>
+        <v>10.914744790713392</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>10.17332595473018</v>
+        <v>10.914744790713392</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>12.716657443412725</v>
+        <v>13.64343098839174</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10849,23 +10849,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>19441.946563477031</v>
+        <v>21500.505925027483</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>7.1412126359916854</v>
+        <v>7.8437880244540654</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>13.296204284186143</v>
+        <v>14.704037893487222</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>14.122461717125514</v>
+        <v>15.527846916134141</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>17.653077146406893</v>
+        <v>19.409808645167676</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38CEBCC9-04D7-492A-9BEB-96F093F0F70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2963C4C0-E942-4A4A-8C59-0525A0AD9424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>17.959999084472656</v>
+        <v>18.860000610351563</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="G5" s="243">
         <f>G3*G4/1000000</f>
-        <v>26261.430331339623</v>
+        <v>27577.428581606917</v>
       </c>
       <c r="H5" s="243"/>
       <c r="I5" s="38"/>
@@ -2502,7 +2502,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>7.7768866221110029</v>
+        <v>7.7829933166503906</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.1013419568451148</v>
+        <v>2.2049118639515046</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.10154414245820834</v>
+        <v>9.6774374752960066E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.4426982633780969E-2</v>
+        <v>4.2340142547505719E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2748,20 +2748,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>8.2177513983271044</v>
+        <v>7.6749748847811254</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>25.176186301943613</v>
+        <v>24.233512585626077</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>18.493330996261051</v>
+        <v>17.737898253526541</v>
       </c>
       <c r="G29" s="242">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>20.14094904155489</v>
+        <v>19.386810068500861</v>
       </c>
       <c r="H29" s="242"/>
     </row>
@@ -8728,11 +8728,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18154.573365238586</v>
+        <v>-18272.088344195763</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.297183176875285</v>
+        <v>12.370310108398106</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9819,11 +9819,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.1013419568451148</v>
+        <v>2.2049118639515046</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>269.18190467185997</v>
+        <v>282.44920977218857</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10492,17 +10492,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10154414245820834</v>
+        <v>9.6774374752960066E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10154414245820834</v>
+        <v>9.6774374752960066E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10154414245820834</v>
+        <v>9.6774374752960066E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10543,17 +10543,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4426982633780969E-2</v>
+        <v>4.2340142547505719E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4426982633780969E-2</v>
+        <v>4.2340142547505719E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4426982633780969E-2</v>
+        <v>4.2340142547505719E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10611,14 +10611,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>5.7626336463104586</v>
+        <v>5.6389462932677468</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>5.7626336463104586</v>
+        <v>5.6389462932677468</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10636,14 +10636,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>1.9319409206241567</v>
+        <v>1.9127171121440254</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>1.9319409206241567</v>
+        <v>1.9127171121440254</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10683,19 +10683,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>47605.027542552139</v>
+        <v>46619.827092190128</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>22.281148664510177</v>
+        <v>21.82003355058157</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>32.556728262444125</v>
+        <v>31.882956919326986</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>32.556728262444125</v>
+        <v>31.882956919326986</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10706,13 +10706,13 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2093.397153356947</v>
+        <v>2198.3003119501277</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4316589189302755</v>
+        <v>1.5034014176639958</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
@@ -10723,16 +10723,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-16061.176211881637</v>
+        <v>-16073.788032245635</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
-        <v>-12.631738347252798</v>
+        <v>-12.64165724813645</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-10.984120301958955</v>
+        <v>-10.992745433162131</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10743,23 +10743,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>29450.454177313553</v>
+        <v>28347.738747994365</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>8.2177513983271044</v>
+        <v>7.6749748847811254</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>18.493330996261051</v>
+        <v>17.737898253526541</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>20.14094904155489</v>
+        <v>19.386810068500861</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>25.176186301943613</v>
+        <v>24.233512585626077</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10797,23 +10797,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>15959.734104523654</v>
+        <v>15813.333982429847</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>7.4698246505810264</v>
+        <v>7.4013032558195437</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>10.914744790713392</v>
+        <v>10.814622823798528</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>10.914744790713392</v>
+        <v>10.814622823798528</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>13.64343098839174</v>
+        <v>13.51827852974816</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10849,23 +10849,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>21500.505925027483</v>
+        <v>20875.002262793685</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>7.8437880244540654</v>
+        <v>7.5381390703003346</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>14.704037893487222</v>
+        <v>14.276260538662534</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>15.527846916134141</v>
+        <v>15.100716446149693</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>19.409808645167676</v>
+        <v>18.875895557687116</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2963C4C0-E942-4A4A-8C59-0525A0AD9424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF5FACE-06F9-447A-8716-79A5B2C93211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>18.860000610351563</v>
+        <v>18.459999084472656</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="G5" s="243">
         <f>G3*G4/1000000</f>
-        <v>27577.428581606917</v>
+        <v>26992.539230839622</v>
       </c>
       <c r="H5" s="243"/>
       <c r="I5" s="38"/>
@@ -2502,7 +2502,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>7.7829933166503906</v>
+        <v>7.7828365961710615</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.2049118639515046</v>
+        <v>2.1581913727061028</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>9.6774374752960066E-2</v>
+        <v>9.8869344821696681E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.2340142547505719E-2</v>
+        <v>4.325672125513879E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2748,20 +2748,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>7.6749748847811254</v>
+        <v>7.9158634678001238</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>24.233512585626077</v>
+        <v>24.654919572458919</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>17.737898253526541</v>
+        <v>18.075057045931516</v>
       </c>
       <c r="G29" s="242">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>19.386810068500861</v>
+        <v>19.723935657967136</v>
       </c>
       <c r="H29" s="242"/>
     </row>
@@ -8728,11 +8728,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18272.088344195763</v>
+        <v>-18225.14095315984</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.370310108398106</v>
+        <v>12.341095801592928</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9819,11 +9819,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.2049118639515046</v>
+        <v>2.1581913727061028</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>282.44920977218857</v>
+        <v>276.46431484365257</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10492,17 +10492,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6774374752960066E-2</v>
+        <v>9.8869344821696681E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6774374752960066E-2</v>
+        <v>9.8869344821696681E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6774374752960066E-2</v>
+        <v>9.8869344821696681E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10543,17 +10543,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2340142547505719E-2</v>
+        <v>4.325672125513879E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2340142547505719E-2</v>
+        <v>4.325672125513879E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2340142547505719E-2</v>
+        <v>4.325672125513879E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10611,14 +10611,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>5.6389462932677468</v>
+        <v>5.6930077318082359</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>5.6389462932677468</v>
+        <v>5.6930077318082359</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10636,14 +10636,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>1.9127171121440254</v>
+        <v>1.9211416258134655</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>1.9127171121440254</v>
+        <v>1.9211416258134655</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10683,19 +10683,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>46619.827092190128</v>
+        <v>47065.830738570163</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>21.82003355058157</v>
+        <v>22.028781955170238</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>31.882956919326986</v>
+        <v>32.187975533301632</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>31.882956919326986</v>
+        <v>32.187975533301632</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10706,13 +10706,13 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2198.3003119501277</v>
+        <v>2151.6765871005377</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.5034014176639958</v>
+        <v>1.4715157950970461</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
@@ -10723,16 +10723,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-16073.788032245635</v>
+        <v>-16073.464366059303</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
-        <v>-12.64165724813645</v>
+        <v>-12.641402692273067</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-10.992745433162131</v>
+        <v>-10.99252408023745</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10743,23 +10743,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>28347.738747994365</v>
+        <v>28840.689785410319</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>7.6749748847811254</v>
+        <v>7.9158634678001238</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>17.737898253526541</v>
+        <v>18.075057045931516</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>19.386810068500861</v>
+        <v>19.723935657967136</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>24.233512585626077</v>
+        <v>24.654919572458919</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10797,23 +10797,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>15813.333982429847</v>
+        <v>15882.663583988928</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>7.4013032558195437</v>
+        <v>7.4337524158963513</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>10.814622823798528</v>
+        <v>10.862036828474503</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>10.814622823798528</v>
+        <v>10.862036828474503</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>13.51827852974816</v>
+        <v>13.577546035593128</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10849,23 +10849,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>20875.002262793685</v>
+        <v>21156.166857245174</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>7.5381390703003346</v>
+        <v>7.674807941848238</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>14.276260538662534</v>
+        <v>14.468546937203008</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>15.100716446149693</v>
+        <v>15.29298624322082</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>18.875895557687116</v>
+        <v>19.116232804026026</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF5FACE-06F9-447A-8716-79A5B2C93211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92FE354A-DFDE-194D-9995-52577B03AD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="12680" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -893,18 +904,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1364,7 +1375,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="257">
@@ -1420,8 +1431,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1444,14 +1455,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1481,7 +1492,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1586,7 +1597,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1614,7 +1625,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1670,13 +1681,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1718,7 +1729,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1751,16 +1762,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1781,7 +1792,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1806,10 +1817,10 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1818,10 +1829,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1838,13 +1849,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1856,13 +1867,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1900,7 +1911,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1909,10 +1920,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1943,7 +1954,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1957,7 +1968,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1970,20 +1981,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -2362,19 +2373,19 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -2383,7 +2394,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2398,7 +2409,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
@@ -2412,13 +2423,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>18.459999084472656</v>
+        <v>18.559999465942383</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
@@ -2438,7 +2449,7 @@
       <c r="H4" s="251"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
@@ -2453,13 +2464,13 @@
       </c>
       <c r="G5" s="243">
         <f>G3*G4/1000000</f>
-        <v>26992.539230839622</v>
+        <v>27138.761568531449</v>
       </c>
       <c r="H5" s="243"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -2485,7 +2496,7 @@
       <c r="H6" s="244"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>209</v>
       </c>
@@ -2502,15 +2513,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>7.7828365961710615</v>
+        <v>7.7831001281738281</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>USD/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>207</v>
       </c>
@@ -2518,7 +2529,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>190</v>
       </c>
@@ -2529,7 +2540,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="123" t="s">
         <v>194</v>
       </c>
@@ -2543,7 +2554,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>142</v>
       </c>
@@ -2555,8 +2566,8 @@
       </c>
       <c r="F12" s="111"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>191</v>
       </c>
@@ -2567,7 +2578,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>202</v>
       </c>
@@ -2578,7 +2589,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="123" t="s">
         <v>203</v>
       </c>
@@ -2592,7 +2603,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>196</v>
       </c>
@@ -2601,8 +2612,8 @@
       </c>
       <c r="D17" s="182"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="143" t="s">
         <v>199</v>
       </c>
@@ -2617,7 +2628,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="138" t="s">
         <v>181</v>
       </c>
@@ -2629,10 +2640,10 @@
         <v>231</v>
       </c>
       <c r="G20" s="178">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="138" t="s">
         <v>182</v>
       </c>
@@ -2643,7 +2654,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="138" t="s">
         <v>183</v>
       </c>
@@ -2655,7 +2666,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="138" t="s">
         <v>184</v>
       </c>
@@ -2668,10 +2679,10 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.1581913727061028</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.1698091242435504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="138" t="s">
         <v>185</v>
       </c>
@@ -2684,10 +2695,10 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>9.8869344821696681E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>9.8339971306775589E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="138" t="s">
         <v>208</v>
       </c>
@@ -2703,7 +2714,7 @@
         <v>0.437513987102362</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="139" t="s">
         <v>187</v>
       </c>
@@ -2716,11 +2727,11 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.325672125513879E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>4.302511293795927E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -2742,923 +2753,923 @@
       </c>
       <c r="H28" s="241"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>180</v>
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>7.9158634678001238</v>
+        <v>0.36299771430420513</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>24.654919572458919</v>
+        <v>24.549027744033161</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>18.075057045931516</v>
+        <v>17.990287751068834</v>
       </c>
       <c r="G29" s="242">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>19.723935657967136</v>
+        <v>19.63922219522653</v>
       </c>
       <c r="H29" s="242"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0